--- a/papers.xlsx
+++ b/papers.xlsx
@@ -1,32 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/congliu/Desktop/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F620162-779C-F540-822D-445CCC6A1118}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731BC29-A4A3-A145-BDFE-A3692CAB3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="0" windowWidth="51200" windowHeight="28800" activeTab="5" xr2:uid="{63D35062-F463-5C46-BEEE-599C3F1C9BA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="6" xr2:uid="{63D35062-F463-5C46-BEEE-599C3F1C9BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Molecular-evolution" sheetId="1" r:id="rId1"/>
     <sheet name="HGT" sheetId="2" r:id="rId2"/>
-    <sheet name="Transposon" sheetId="7" r:id="rId3"/>
-    <sheet name="Symbiosis" sheetId="3" r:id="rId4"/>
-    <sheet name="Genome-phylogeny" sheetId="4" r:id="rId5"/>
-    <sheet name="Methodology" sheetId="5" r:id="rId6"/>
-    <sheet name="Taxonomy-trait" sheetId="6" r:id="rId7"/>
+    <sheet name="Metabolism" sheetId="8" r:id="rId3"/>
+    <sheet name="Transposon" sheetId="7" r:id="rId4"/>
+    <sheet name="Symbiosis" sheetId="3" r:id="rId5"/>
+    <sheet name="Genome-phylogeny" sheetId="4" r:id="rId6"/>
+    <sheet name="Methodology" sheetId="5" r:id="rId7"/>
+    <sheet name="Taxonomy-trait" sheetId="6" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="734">
   <si>
     <t>Authors</t>
   </si>
@@ -283,9 +297,21 @@
     <t>Cell</t>
   </si>
   <si>
+    <t>HGT is widespread in insects and contributes to male courtship in lepidopterans</t>
+  </si>
+  <si>
     <t>Science</t>
   </si>
   <si>
+    <t>Sloan et al.</t>
+  </si>
+  <si>
+    <t>Sun et al.</t>
+  </si>
+  <si>
+    <t>Multiple ancient horizontal gene transfers and duplications in lepidopteran species</t>
+  </si>
+  <si>
     <t>Pathogen-origin horizontally transferred genes contribute to the evolution of Lepidopteran insects</t>
   </si>
   <si>
@@ -463,9 +489,6 @@
     <t>Recurrent HGT from wasps to lepidopterans mediated by bracoviruses</t>
   </si>
   <si>
-    <t># Horizontal gene transfer (HGT) in prokaryotes</t>
-  </si>
-  <si>
     <t>Arnold et al.</t>
   </si>
   <si>
@@ -520,18 +543,12 @@
     <t>So, although these apparently transient genes (between bacteria) are under purifying selection, this selection is weak. In part, the weak selection might be the consequence of selection against novel deleterious function (for example, protein 'toxicity'91) instead of a need to retain a selective advantage that these genes provide to their host.</t>
   </si>
   <si>
-    <t># Symbiont in host populations</t>
-  </si>
-  <si>
     <t>Michaud et al.</t>
   </si>
   <si>
     <t>Molecular Ecology</t>
   </si>
   <si>
-    <t>Efficient but occassionally imperfect vertical transmission of gut mutualistic protists in a wood-feeding termites</t>
-  </si>
-  <si>
     <t>18S metabarcoding of 24 colonies (14 reproductives+10 workers in each colony) of Reticulitermes grassei gut protist shows an average of 0.897 vertical transmission rate per species. Transmission rate contribute, but do not completely explain the prevalence of protists.</t>
   </si>
   <si>
@@ -568,9 +585,6 @@
     <t>In Drosophila melanogaster, cifA and cifB encoded by prophage WO from Wolbachia recapitulate cytoplasmic incompatibility: crosses between infected males and uninfected females lead to embryonic death.</t>
   </si>
   <si>
-    <t># Symbiont among host phylogeny</t>
-  </si>
-  <si>
     <t>Bourguignon et al.</t>
   </si>
   <si>
@@ -607,9 +621,6 @@
     <t>Meta-analysis on the diversity of Wolbachia in social insects (ants, bees, termites, wasps)</t>
   </si>
   <si>
-    <t>Lo and Evans</t>
-  </si>
-  <si>
     <t>Phylogenetic diversity of the intracellular symbiont Wolbachia in termites</t>
   </si>
   <si>
@@ -622,21 +633,12 @@
     <t>Wolbachia: master manipulators of invertebrate biology</t>
   </si>
   <si>
-    <t>Porter and Sullivan</t>
-  </si>
-  <si>
     <t>The cellular lives of Wolbachia</t>
   </si>
   <si>
     <t>Kaur et al.</t>
   </si>
   <si>
-    <t>Cell Host &amp; Microbe</t>
-  </si>
-  <si>
-    <t>Living in the endosymbiotic world of wolbachia: a central review</t>
-  </si>
-  <si>
     <t>Scholz et al.</t>
   </si>
   <si>
@@ -691,9 +693,6 @@
     <t>RNA encoded by a retrotransposon of retroviral origin is essential for myelination. This transposon is conserved in jawed lineages, resulted from independent insertion events after speciation.</t>
   </si>
   <si>
-    <t># Evolutionary dynamics of transposons</t>
-  </si>
-  <si>
     <t>Factors lead to transposon compositions of insect genomes</t>
   </si>
   <si>
@@ -706,9 +705,6 @@
     <t>Evolutionary dynamics of transposable elements in bdelloid rotifers</t>
   </si>
   <si>
-    <t>Methodology</t>
-  </si>
-  <si>
     <t>Langmuller et al.</t>
   </si>
   <si>
@@ -799,9 +795,6 @@
     <t>Population genomics supports baculoviruses as vectors of horizontal transfer of insect transposons</t>
   </si>
   <si>
-    <t># New genomes reveal evolution of traits</t>
-  </si>
-  <si>
     <t>Fouks et al.</t>
   </si>
   <si>
@@ -886,9 +879,6 @@
     <t>Bucek et al.</t>
   </si>
   <si>
-    <t>Evolution of termite symbiosis informed by transcriptome-based phylogeny</t>
-  </si>
-  <si>
     <t># Metabolic network</t>
   </si>
   <si>
@@ -997,9 +987,6 @@
     <t>https://github.com/ssolo/ALE</t>
   </si>
   <si>
-    <t># Selective pressure</t>
-  </si>
-  <si>
     <t># HGT and phenotype</t>
   </si>
   <si>
@@ -1016,13 +1003,1253 @@
   </si>
   <si>
     <t># Reviews</t>
+  </si>
+  <si>
+    <t>Tokuda et al.</t>
+  </si>
+  <si>
+    <t>Microbial technology</t>
+  </si>
+  <si>
+    <t>Microbial evolution through horizontal gene transfer by mobile genetic elements</t>
+  </si>
+  <si>
+    <t>Andam et al.</t>
+  </si>
+  <si>
+    <t>FEMS microbiology reviews</t>
+  </si>
+  <si>
+    <t>Multilevel populations and the evolution of antibiotic resistance through horizontal gene transfer</t>
+  </si>
+  <si>
+    <t>Woods et al.</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer potentiates adaptation by reducing selective constraints on the spread of genetic variation</t>
+  </si>
+  <si>
+    <t>We show that HGT can help antibiotic resistance genes establish at a low frequency in a population, even in the absence of the antibiotic. We find that these HGT treatment populations flourish when treated with antibiotics, showing how HGT can potentiate adaptation to future environmental change.</t>
+  </si>
+  <si>
+    <t>McInnes et al.</t>
+  </si>
+  <si>
+    <t>Current opinion in microbiology</t>
+  </si>
+  <si>
+    <t>Horizontal transfer of antibiotic resistance genes in the human gut microbiome</t>
+  </si>
+  <si>
+    <t>Ochman et al.</t>
+  </si>
+  <si>
+    <t>Lateral gene transfer and the nature of bacterial innovation</t>
+  </si>
+  <si>
+    <t>Koonin</t>
+  </si>
+  <si>
+    <t>F1000Research</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer: essentiality and evolvability in prokaryotes, and roles in evolutionary transitions</t>
+  </si>
+  <si>
+    <t># HGT in human genome</t>
+  </si>
+  <si>
+    <t>Initial sequencing and analysis of the human genome</t>
+  </si>
+  <si>
+    <t>Salzberg et al.</t>
+  </si>
+  <si>
+    <t>Microbial genes in the human genome: lateral transfer or gene loss?</t>
+  </si>
+  <si>
+    <t>Stanhope et al.</t>
+  </si>
+  <si>
+    <t>Phylogenetic analyses do not support horizontal gene transfers from bacteria to vertebrates</t>
+  </si>
+  <si>
+    <t>Crisp et al.</t>
+  </si>
+  <si>
+    <t>Genome biology</t>
+  </si>
+  <si>
+    <t>Expression of multiple horizontally acquired genes is a hallmark of both vertebrate and invertebrate genomes</t>
+  </si>
+  <si>
+    <t>Salzberg</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer is not a hallmark of the human genome</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>BioEssays</t>
+  </si>
+  <si>
+    <t>Too much eukaryote LGT</t>
+  </si>
+  <si>
+    <t>Eukaryote lateral gene transfer is Lamarckian</t>
+  </si>
+  <si>
+    <t>Nakabachi</t>
+  </si>
+  <si>
+    <t>Current opinion in insect science</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfers in insects</t>
+  </si>
+  <si>
+    <t>Leclere et al.</t>
+  </si>
+  <si>
+    <t>The genome of the jellyfish Clytia hemisphaerica and the evolution of the cnidarian life-cycle</t>
+  </si>
+  <si>
+    <t>Haegeman et al.</t>
+  </si>
+  <si>
+    <t>Molecular Plant-Microbe Interactions</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer in nematodes: a catalyst for plant parasitism?</t>
+  </si>
+  <si>
+    <t>Gladyshev et al.</t>
+  </si>
+  <si>
+    <t>Massive horizontal gene transfer in bdelloid rotifers</t>
+  </si>
+  <si>
+    <t>Moran et al.</t>
+  </si>
+  <si>
+    <t>Lateral transfer of genes from fungi underlies carotenoid production in aphids</t>
+  </si>
+  <si>
+    <t>HGT and body coloration</t>
+  </si>
+  <si>
+    <t>Whitefly hijacks a plant detoxification gene that neutralizes plant toxins</t>
+  </si>
+  <si>
+    <t>Horizontally transmitted parasitoid killing factor shapes insect defense to parasitoids</t>
+  </si>
+  <si>
+    <t># Termites</t>
+  </si>
+  <si>
+    <t>Krishna et al.</t>
+  </si>
+  <si>
+    <t>Treatise on the Isoptera of the world.(Bulletin of the American Museum of Natural History, no. 377)</t>
+  </si>
+  <si>
+    <t># Genomes</t>
+  </si>
+  <si>
+    <t>Lo et al.</t>
+  </si>
+  <si>
+    <t>Evidence from multiple gene sequences indicates that termites evolved from wood-feeding cockroaches</t>
+  </si>
+  <si>
+    <t>The evolutionary history of termites as inferred from 66 mitochondrial genomes</t>
+  </si>
+  <si>
+    <t>Brune et al.</t>
+  </si>
+  <si>
+    <t>Annual review of microbiology</t>
+  </si>
+  <si>
+    <t>The gut microbiota of termites: digesting the diversity in the light of ecology and evolution</t>
+  </si>
+  <si>
+    <t>Bignell</t>
+  </si>
+  <si>
+    <t>The mechanistic benefits of microbial symbionts</t>
+  </si>
+  <si>
+    <t>The role of symbionts in the evolution of termites and their rise to ecological dominance in the tropics</t>
+  </si>
+  <si>
+    <t>Gile</t>
+  </si>
+  <si>
+    <t>Protist symbionts of termites: diversity, distribution, and coevolution</t>
+  </si>
+  <si>
+    <t>Evolution of termite symbiosis informed by transcriptome-based phylogenies</t>
+  </si>
+  <si>
+    <t>Chouvenc et al.</t>
+  </si>
+  <si>
+    <t>Cellular and Molecular Life Sciences</t>
+  </si>
+  <si>
+    <t>Termite evolution: mutualistic associations, key innovations, and the rise of Termitidae</t>
+  </si>
+  <si>
+    <t># Blattabacterium</t>
+  </si>
+  <si>
+    <t>Bandi et al.</t>
+  </si>
+  <si>
+    <t>Parassitologia</t>
+  </si>
+  <si>
+    <t>Phylogenetically distant intracellular symbionts in termites</t>
+  </si>
+  <si>
+    <t># Wolbachia</t>
+  </si>
+  <si>
+    <t>Molecular phylogenetics and evolution</t>
+  </si>
+  <si>
+    <t>Salunke et al.</t>
+  </si>
+  <si>
+    <t>Diversity of Wolbachia in Odontotermes spp.(Termitidae) and Coptotermes heimi (Rhinotermitidae) using the multigene approach</t>
+  </si>
+  <si>
+    <t>FEMS microbiology letters</t>
+  </si>
+  <si>
+    <t>Roy et al.</t>
+  </si>
+  <si>
+    <t>PLoS One</t>
+  </si>
+  <si>
+    <t>The distribution of Wolbachia in Cubitermes (Termitidae, Termitinae) castes and colonies: a modelling approach</t>
+  </si>
+  <si>
+    <t>Hellemans et al.</t>
+  </si>
+  <si>
+    <t>Bacteriome-associated Wolbachia of the parthenogenetic termite Cavitermes tuberosus</t>
+  </si>
+  <si>
+    <t>FEMS microbiology ecology</t>
+  </si>
+  <si>
+    <t>Cell host and microbe</t>
+  </si>
+  <si>
+    <t>Living in the endosymbiotic world of Wolbachia: a centennial review</t>
+  </si>
+  <si>
+    <t>Porter et al.</t>
+  </si>
+  <si>
+    <t>Nature Reviews Microbiology</t>
+  </si>
+  <si>
+    <t>Sabree et al.</t>
+  </si>
+  <si>
+    <t>Nitrogen recycling and nutritional provisioning by Blattabacterium, the cockroach endosymbiont</t>
+  </si>
+  <si>
+    <t>Applied and Environmental Microbiology</t>
+  </si>
+  <si>
+    <t>Genome shrinkage and loss of nutrient-providing potential in the obligate symbiont of the primitive termite Mastotermes darwiniensis</t>
+  </si>
+  <si>
+    <t>Neef et al.</t>
+  </si>
+  <si>
+    <t>Genome economization in the endosymbiont of the wood roach Cryptocercus punctulatus due to drastic loss of amino acid synthesis capabilities</t>
+  </si>
+  <si>
+    <t>Kinjo et al.</t>
+  </si>
+  <si>
+    <t>Parallel and gradual genome erosion in the Blattabacterium endosymbionts of Mastotermes darwiniensis and Cryptocercus wood roaches</t>
+  </si>
+  <si>
+    <t>Efficient but occasionally imperfect vertical transmission of gut mutualistic protists in a wood-feeding termite</t>
+  </si>
+  <si>
+    <t>Sinotte et al.</t>
+  </si>
+  <si>
+    <t>Extensive inheritance of gut microbial communities in a superorganismal termite</t>
+  </si>
+  <si>
+    <t>Arora et al.</t>
+  </si>
+  <si>
+    <t>Microbiome</t>
+  </si>
+  <si>
+    <t>The functional evolution of termite gut microbiota</t>
+  </si>
+  <si>
+    <t># Gut microbes of termites</t>
+  </si>
+  <si>
+    <t># Statistics in genome evolution</t>
+  </si>
+  <si>
+    <t>Land et al.</t>
+  </si>
+  <si>
+    <t>Functional integrative genomics</t>
+  </si>
+  <si>
+    <t>Insights from 20 years of bacterial genome sequencing</t>
+  </si>
+  <si>
+    <t>Typical coding density of bacterial genomes: 85-90%</t>
+  </si>
+  <si>
+    <t>Tai et al.</t>
+  </si>
+  <si>
+    <t>The role of host phylogeny varies in shaping microbial diversity in the hindguts of lower termites</t>
+  </si>
+  <si>
+    <t># Gut microbes of cockroaches</t>
+  </si>
+  <si>
+    <t>Ishmael et al.</t>
+  </si>
+  <si>
+    <t>Microbiology</t>
+  </si>
+  <si>
+    <t>Extensive genomic diversity of closely related Wolbachia strains</t>
+  </si>
+  <si>
+    <t>Choi et al.</t>
+  </si>
+  <si>
+    <t>Population genomics of infectious and integrated Wolbachia pipientis genomes in Drosophila ananassae</t>
+  </si>
+  <si>
+    <t>Leclercq et al.</t>
+  </si>
+  <si>
+    <t>Birth of a W sex chromosome by horizontal transfer of Wolbachia bacterial symbiont genome</t>
+  </si>
+  <si>
+    <t>Diouf et al.</t>
+  </si>
+  <si>
+    <t>Profiling the succession of bacterial communities throughout the life stages of a higher termite Nasutitermes arborum (Termitidae, Nasutitermitinae) using 16S rRNA gene pyrosequencing</t>
+  </si>
+  <si>
+    <t>FEMS Microbiology letters</t>
+  </si>
+  <si>
+    <t>Variations in the relative abundance of Wolbachia in the gut of Nasutitermes arborum across life stages and castes</t>
+  </si>
+  <si>
+    <t>Yashiro et al.</t>
+  </si>
+  <si>
+    <t>Communicative and Integrative Biology</t>
+  </si>
+  <si>
+    <t>Comparative screening of endosymbiotic bacteria associated with the asexual and sexual lineages of the termite Glyptotermes nakajimai</t>
+  </si>
+  <si>
+    <t>Patino et al.</t>
+  </si>
+  <si>
+    <t>Comparative genomics of Blattabacterium cuenoti: the frozen legacy of an ancient endosymbiont genome</t>
+  </si>
+  <si>
+    <t>Evidence for cocladogenesis between diverse dictyopteran lineages and their intracellular endosymbionts</t>
+  </si>
+  <si>
+    <t>Transoceanic dispersal and plate tectonics shaped global cockroach distributions: evidence from mitochondrial phylogenomics</t>
+  </si>
+  <si>
+    <t>Sacchi et al.</t>
+  </si>
+  <si>
+    <t>Transovarial transmission of symbiotic bacteria in Mastotermes darwiniensis (Isoptera: Mastotermitidae): ultrastructural aspects and phylogenetic implications</t>
+  </si>
+  <si>
+    <t>Noda et al.</t>
+  </si>
+  <si>
+    <t>Bacteriocytes and Blattabacterium endosymbionts of the German cockroach Blattella germanica, the forest cockroach Blattella nipponica, and other cockroach species</t>
+  </si>
+  <si>
+    <t>Zoological science</t>
+  </si>
+  <si>
+    <t>Kent et al.</t>
+  </si>
+  <si>
+    <t>Phage WO of Wolbachia: lambda of the endosymbiont world</t>
+  </si>
+  <si>
+    <t>Trends in microbiology</t>
+  </si>
+  <si>
+    <t>Remarkable abundance and evolution of mobile group II introns in Wolbachia bacterial endosymbionts</t>
+  </si>
+  <si>
+    <t>Phylogenomics of the reproductive parasite Wolbachia pipientis w Mel: a streamlined genome overrun by mobile genetic elements</t>
+  </si>
+  <si>
+    <t>Wu et al.</t>
+  </si>
+  <si>
+    <t>PLoS biology</t>
+  </si>
+  <si>
+    <t>Klasson et al.</t>
+  </si>
+  <si>
+    <t>Genome evolution of Wolbachia strain w Pip from the Culex pipiens group</t>
+  </si>
+  <si>
+    <t>The mosaic genome structure of the Wolbachia w Ri strain infecting Drosophila simulans</t>
+  </si>
+  <si>
+    <t>Siozios et al.</t>
+  </si>
+  <si>
+    <t>PloS one</t>
+  </si>
+  <si>
+    <t>The diversity and evolution of Wolbachia ankyrin repeat domain genes</t>
+  </si>
+  <si>
+    <t>Katz</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society B: Biological Sciences</t>
+  </si>
+  <si>
+    <t>Recent events dominate interdomain lateral gene transfers between prokaryotes and eukaryotes and, with the exception of endosymbiotic gene transfers, few ancient transfer events persist</t>
+  </si>
+  <si>
+    <t>Brelsfoard et al.</t>
+  </si>
+  <si>
+    <t>PLoS neglected tropical diseases</t>
+  </si>
+  <si>
+    <t>Presence of extensive Wolbachia symbiont insertions discovered in the genome of its host Glossina morsitans morsitans</t>
+  </si>
+  <si>
+    <t>Koutsovoulos et al.</t>
+  </si>
+  <si>
+    <t>PLoS genetics</t>
+  </si>
+  <si>
+    <t>Palaeosymbiosis revealed by genomic fossils of Wolbachia in a strongyloidean nematode</t>
+  </si>
+  <si>
+    <t>Comprehensive analysis of pseudogenes in prokaryotes: widespread gene decay and failure of putative horizontally transferred genes</t>
+  </si>
+  <si>
+    <t>Genome Biology</t>
+  </si>
+  <si>
+    <t>Nature Plants</t>
+  </si>
+  <si>
+    <t>Convergent horizontal gene transfer and cross-talk of mobile nucleic acids in parasitic plants</t>
+  </si>
+  <si>
+    <t>Erwin</t>
+  </si>
+  <si>
+    <t>Early metazoan life: divergence, environment and ecology</t>
+  </si>
+  <si>
+    <t>Recent molecular clock studies date the origin of Metazoa to 750–800 million years ago</t>
+  </si>
+  <si>
+    <t>Codon usage methods for horizontal gene transfer detection generate an abundance of false positive and false negative results</t>
+  </si>
+  <si>
+    <t>Friedman et al.</t>
+  </si>
+  <si>
+    <t>Current microbiology</t>
+  </si>
+  <si>
+    <t>Multiple horizontal acquisitions of plant genes in the whitefly Bemisia tabaci</t>
+  </si>
+  <si>
+    <t>Insect molecular biology</t>
+  </si>
+  <si>
+    <t>Multiple interkingdom horizontal gene transfers in Pyrenophora and closely related species and their contributions to phytopathogenic lifestyles</t>
+  </si>
+  <si>
+    <t>Guo et al.</t>
+  </si>
+  <si>
+    <t>BMC biology</t>
+  </si>
+  <si>
+    <t>The Sapria himalayana genome provides new insights into the lifestyle of endoparasitic plants</t>
+  </si>
+  <si>
+    <t>Daubin et al.</t>
+  </si>
+  <si>
+    <t>Genome research</t>
+  </si>
+  <si>
+    <t>Bacterial genomes as new gene homes: the genealogy of ORFans in E. coli</t>
+  </si>
+  <si>
+    <t>Bobay et al.</t>
+  </si>
+  <si>
+    <t>Pervasive domestication of defective prophages by bacteria</t>
+  </si>
+  <si>
+    <t>Raz et al.</t>
+  </si>
+  <si>
+    <t>Genetics</t>
+  </si>
+  <si>
+    <t>The influence of horizontal gene transfer on the mean fitness of unicellular populations in static environments</t>
+  </si>
+  <si>
+    <t>Baltrus</t>
+  </si>
+  <si>
+    <t>Trends in ecology evolution</t>
+  </si>
+  <si>
+    <t>Exploring the costs of horizontal gene transfer</t>
+  </si>
+  <si>
+    <t>Knoppel et al.</t>
+  </si>
+  <si>
+    <t>Minor fitness costs in an experimental model of horizontal gene transfer in bacteria</t>
+  </si>
+  <si>
+    <t>San et al.</t>
+  </si>
+  <si>
+    <t>Interactions between horizontally acquired genes create a fitness cost in Pseudomonas aeruginosa</t>
+  </si>
+  <si>
+    <t>Proceedings of the Royal Society B</t>
+  </si>
+  <si>
+    <t>Evidence of cospeciation between termites and their gut bacteria on a geological time scale</t>
+  </si>
+  <si>
+    <t>Nevers et al.</t>
+  </si>
+  <si>
+    <t>Protein length distribution is remarkably uniform across the tree of life</t>
+  </si>
+  <si>
+    <t>bacteria: 270 aa, archaea: 242 aa, eukaryote: 353 aa</t>
+  </si>
+  <si>
+    <t>Bacterial genes in the aphid genome: absence of functional gene transfer from Buchnera to its host</t>
+  </si>
+  <si>
+    <t>Parallel histories of horizontal gene transfer facilitated extreme reduction of endosymbiont genomes in sap-feeding insects</t>
+  </si>
+  <si>
+    <t>Evolutionary origin of insect--Wolbachia nutritional mutualism</t>
+  </si>
+  <si>
+    <t>Diversity of Wolbachia isolated from the Cubitermes sp. affinis subarquatus complex of species (Termitidae), revealed by multigene phylogenies</t>
+  </si>
+  <si>
+    <t>Baldo et al.</t>
+  </si>
+  <si>
+    <t>Multilocus sequence typing system for the endosymbiont Wolbachia pipientis</t>
+  </si>
+  <si>
+    <t>Applied and environmental microbiology</t>
+  </si>
+  <si>
+    <t>BMC genomics</t>
+  </si>
+  <si>
+    <t>Extensive duplication of the Wolbachia DNA in chromosome four of Drosophila ananassae</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer of microbial cellulases into nematode genomes is associated with functional assimilation and gene turnover</t>
+  </si>
+  <si>
+    <t>Mayer et al.</t>
+  </si>
+  <si>
+    <t>BMC evolutionary biology</t>
+  </si>
+  <si>
+    <t>Recurrent horizontal transfer of bacterial toxin genes to eukaryotes</t>
+  </si>
+  <si>
+    <t>Recurrent horizontal transfer of arsenite methyltransferase genes facilitated adaptation of life to arsenic</t>
+  </si>
+  <si>
+    <t>Acuna et al.</t>
+  </si>
+  <si>
+    <t>Adaptive horizontal transfer of a bacterial gene to an invasive insect pest of coffee</t>
+  </si>
+  <si>
+    <t>Dorrell et al.</t>
+  </si>
+  <si>
+    <t>Phylogenomic fingerprinting of tempo and functions of horizontal gene transfer within ochrophytes</t>
+  </si>
+  <si>
+    <t>Savory et al.</t>
+  </si>
+  <si>
+    <t>PLoS pathogens</t>
+  </si>
+  <si>
+    <t>The role of horizontal gene transfer in the evolution of the oomycetes</t>
+  </si>
+  <si>
+    <t>Sezmis et al.</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer, fitness costs and mobility shape the spread of antibiotic resistance genes into experimental populations of Acinetobacter baylyi</t>
+  </si>
+  <si>
+    <t>Ancient horizontally transferred genes in the genome of California two-spot octopus, Octopus bimaculoides</t>
+  </si>
+  <si>
+    <t>Adaptation through horizontal gene transfer in the cryptoendolithic red alga Galdieria phlegrea</t>
+  </si>
+  <si>
+    <t>Current biology</t>
+  </si>
+  <si>
+    <t>Scientific reports</t>
+  </si>
+  <si>
+    <t>Horizontal functional gene transfer from bacteria to fishes</t>
+  </si>
+  <si>
+    <t>Marcet et al.</t>
+  </si>
+  <si>
+    <t>Acquisition of prokaryotic genes by fungal genomes</t>
+  </si>
+  <si>
+    <t>Molecular plant</t>
+  </si>
+  <si>
+    <t>Major episodes of horizontal gene transfer drove the evolution of land plants</t>
+  </si>
+  <si>
+    <t>Denker et al.</t>
+  </si>
+  <si>
+    <t>Horizontal gene transfer and the evolution of cnidarian stinging cells</t>
+  </si>
+  <si>
+    <t># HTT: Horizontal transposon transfer</t>
+  </si>
+  <si>
+    <t>Horizontal transfer and evolution of transposable elements in vertebrates</t>
+  </si>
+  <si>
+    <t>Insect neutral substitution accumulation rate (a): 0.0257 substitutions per site per million years, dS saturation (M): 3.0262 substitutions per site, dS(Time)=Ma*Time/(M+a*Time)</t>
+  </si>
+  <si>
+    <t>Vertebrate neutral substitution accumulation rate (a): 0.0031 substitutions per site per million years, dS saturation (M): 6.460 substitutions per site, dS(Time)=Ma*Time/(M+a*Time)</t>
+  </si>
+  <si>
+    <t>Amino acid substitution rate: 0.00254 substitutions per site per million years, gene gain/loss rate: 43 gains/losses per million years</t>
+  </si>
+  <si>
+    <t># Comparative transposon composition among species</t>
+  </si>
+  <si>
+    <t># Transposon dynamics in populations</t>
+  </si>
+  <si>
+    <t>Rapid evolution of protein diversity by de novo origination in Oryza</t>
+  </si>
+  <si>
+    <t>In recent divergence of Oryza, an average of 51.5 de novo genes per million years were generated and retained. We observed evolutionary patterns in which excess indels and early transcription were favoured in origination with a stepwise formation of gene structure. These data reveal that de novo genes contribute to the rapid evolution of protein diversity under positive selection.</t>
+  </si>
+  <si>
+    <t>Schlotterer</t>
+  </si>
+  <si>
+    <t>Genes from scratch – the evolutionary fate of de novo genes</t>
+  </si>
+  <si>
+    <t>Schridir et al.</t>
+  </si>
+  <si>
+    <t>Rates and Genomic Consequences of Spontaneous Mutational Events in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Mutation accumulation experiment of Drosophila: point mutation and small indel rates vary significantly between the two different genetic backgrounds examined; By comparing our mutation rate estimates to polymorphism data, we are able to estimate the fraction of new mutations that are eliminated by purifying selection. These results suggest that ∼99% of duplications and deletions are deleterious—making them 10 times more likely to be removed by selection than nonsynonymous mutations.</t>
+  </si>
+  <si>
+    <t>Radrizzani et al.</t>
+  </si>
+  <si>
+    <t>Selection on synonymous sites: the unwanted transcript hypothesis</t>
+  </si>
+  <si>
+    <t>An integrated encyclopedia of DNA elements in the human genome.</t>
+  </si>
+  <si>
+    <t>nearly all the DNA of the human genome is transcribed</t>
+  </si>
+  <si>
+    <t>The ENCODE Project Consortium</t>
+  </si>
+  <si>
+    <t>Evidence for Purifying Selection Against Synonymous Mutations in Mammalian Exonic Splicing Enhancers</t>
+  </si>
+  <si>
+    <t>Parmley et al.</t>
+  </si>
+  <si>
+    <t>Iyengar et al.</t>
+  </si>
+  <si>
+    <t>Neutral Models of De Novo Gene Emergence Suggest that Gene Evolution has a Preferred Trajectory</t>
+  </si>
+  <si>
+    <t>McLysaght et al.</t>
+  </si>
+  <si>
+    <t>Open questions in the study of de novo genes: what, how and why</t>
+  </si>
+  <si>
+    <t>Nature review genetics</t>
+  </si>
+  <si>
+    <t>Difficulties in finding de novo genes</t>
+  </si>
+  <si>
+    <t>Kondrashov</t>
+  </si>
+  <si>
+    <t>Gene duplication as a mechanism of genomic adaptation to a changing environment</t>
+  </si>
+  <si>
+    <t>Braso-Vives et al.</t>
+  </si>
+  <si>
+    <t>Parallel evolution of amphioxus and vertebrate small-scale gene duplications</t>
+  </si>
+  <si>
+    <t>In contrast to their slower molecular and morphological evolution, amphioxus’ small-scale gene duplication history resembles that of the vertebrate lineage both in quantitative and in functional terms.</t>
+  </si>
+  <si>
+    <t>Langleib et al.</t>
+  </si>
+  <si>
+    <t>Evolutionary analysis of species-specific duplications in flatworm genomes</t>
+  </si>
+  <si>
+    <t>Hughes et al.</t>
+  </si>
+  <si>
+    <t>Parallel Evolution by Gene Duplication in the Genomes of Two Unicellular Fungi</t>
+  </si>
+  <si>
+    <t>Chau et al.</t>
+  </si>
+  <si>
+    <t>Evolution</t>
+  </si>
+  <si>
+    <t>Gene duplication and the evolution of phenotypic diversity in insect societies</t>
+  </si>
+  <si>
+    <t>Increased gene duplication-retainion with increasing sociality. Gene tree reconciliation: 1-6 duplicates per million year in Apis, 1-3 duplicates in Bombus</t>
+  </si>
+  <si>
+    <t>Maekawa et al.</t>
+  </si>
+  <si>
+    <t>Termite sociogenomics: evolution and regulation of caste-specific expressed genes</t>
+  </si>
+  <si>
+    <t>Gene duplication boosted sociality of termites</t>
+  </si>
+  <si>
+    <t>Gao et al.</t>
+  </si>
+  <si>
+    <t>Very Low Gene Duplication Rate in the Yeast Genome</t>
+  </si>
+  <si>
+    <t>Lynch et al.</t>
+  </si>
+  <si>
+    <t>The evolutionary fate and consequences of duplicate genes</t>
+  </si>
+  <si>
+    <t>Dunk et al.</t>
+  </si>
+  <si>
+    <t>Recurrent sequence evolution after independent gene duplication</t>
+  </si>
+  <si>
+    <t>Vance et al.</t>
+  </si>
+  <si>
+    <t>Genome biology and evolution</t>
+  </si>
+  <si>
+    <t>Evidence from Drosophila Supports Higher Duplicability of Faster Evolving Genes</t>
+  </si>
+  <si>
+    <t>The plant cell</t>
+  </si>
+  <si>
+    <t>Gene Duplicability of Core Genes Is Highly Consistent across All Angiosperms</t>
+  </si>
+  <si>
+    <t>Kuzmin et al.</t>
+  </si>
+  <si>
+    <t>Retention of duplicated genes in evolution</t>
+  </si>
+  <si>
+    <t>Gene conversion disturbs molecular clock assumptions in analyses of paralogs</t>
+  </si>
+  <si>
+    <t>Cheng et al.</t>
+  </si>
+  <si>
+    <t>A genome-wide comparison of recent chimpanzee and human segmental duplications</t>
+  </si>
+  <si>
+    <t>Bergeron et al.</t>
+  </si>
+  <si>
+    <t>Evolution of the germline mutation rate across vertebrates</t>
+  </si>
+  <si>
+    <t>Pujal et al.</t>
+  </si>
+  <si>
+    <t>Insect biochemistry and molecular biology</t>
+  </si>
+  <si>
+    <t>Functional redundancy of the three insulin receptors of cockroaches</t>
+  </si>
+  <si>
+    <t>A tale of two copies: Evolutionary trajectories of moth pheromone receptors</t>
+  </si>
+  <si>
+    <t>Benovoy et al.</t>
+  </si>
+  <si>
+    <t>Ectopic gene conversions in the human genome</t>
+  </si>
+  <si>
+    <t>Conversions occur at a frequency of 0.88% (483 conversion events/55,050 gene pairs compared) and have an average length of 371 ± 752 bp (± standard deviation).</t>
+  </si>
+  <si>
+    <t># Gene conversion</t>
+  </si>
+  <si>
+    <t>McGrath et al.</t>
+  </si>
+  <si>
+    <t>Minimal effect of ectopic gene conversion among recent duplicates in four mammalian genomes</t>
+  </si>
+  <si>
+    <t>Casola et al.</t>
+  </si>
+  <si>
+    <t>Nonallelic Gene Conversion in the Genus Drosophila</t>
+  </si>
+  <si>
+    <t>The proportion of converted genes ranged across species from 1 to 9% when paralogs of all ages were included.</t>
+  </si>
+  <si>
+    <t>We conclude that gene conversion has had only a small effect on mammalian genomes and gene duplicate evolution in general. Most of these studies indicate that gene conversion may not be so extensive as to have significant effects on gene family evolution</t>
+  </si>
+  <si>
+    <t>Dourbin et al.</t>
+  </si>
+  <si>
+    <t>Characterization of the gene conversions between the multigene family members of the yeast genome.</t>
+  </si>
+  <si>
+    <t>Genomewide rate of gene conversion (number of conversion events/number of gene pairs) of 7.8% among gene families with more than two members in the yeast Saccharomyces cerevisiae</t>
+  </si>
+  <si>
+    <t>Semple et al.</t>
+  </si>
+  <si>
+    <t>Gene duplication and gene conversion in the Caenorhabditis elegans genome</t>
+  </si>
+  <si>
+    <t>Gene conversion events are detectable between only 2% of the duplicated pairs</t>
+  </si>
+  <si>
+    <t>Wang et al.</t>
+  </si>
+  <si>
+    <t>Extensive converted evolution of rice paralogs and the road to regaining independence</t>
+  </si>
+  <si>
+    <t>Using more limited “quartet” methods—which require two related paralogs in each of two species—Wang  et al. (2007b) found that ∼8% of Oryza sativa japonica paralogs on chromosomes 11 and 12 have been affected by gene conversion since the split with O. sativa indica.</t>
+  </si>
+  <si>
+    <t>a quartet method estimated a conversion rate of 5% among a subset of gene families in human</t>
+  </si>
+  <si>
+    <t>Evidence for widespread reticulate evolution within human duplicons</t>
+  </si>
+  <si>
+    <t>Jackson et al.</t>
+  </si>
+  <si>
+    <t>Ezawa et al.</t>
+  </si>
+  <si>
+    <t>Genome-wide search of gene conversions in duplicated genes of mouse and rat</t>
+  </si>
+  <si>
+    <t>Each “quartet” consists of two pairs of orthologous sequences supposed to have been generated by a duplication event and a subsequent speciation of two closely related species. We extensively sampled 2,641 quartets that appear to have resulted from duplications after the divergence of primates and rodents and before mouse-rat speciation. About 18% (488 quartets) were shown to be highly positive for gene conversion using this combined test. Out of them, 340 (13% of the total) showed signs of gene conversion in mouse sequence pairs.</t>
+  </si>
+  <si>
+    <t>Lukacsovich et al.</t>
+  </si>
+  <si>
+    <t>Experiment. We tested a variety of pairs of single nucleotide heterologies and determined that they reduced recombination from 7- to 175-fold</t>
+  </si>
+  <si>
+    <t>Nei et al.</t>
+  </si>
+  <si>
+    <t>Annual review of genetics</t>
+  </si>
+  <si>
+    <t>Concerted and birth-and-death evolution of multigene families.</t>
+  </si>
+  <si>
+    <t>Bioinformatics for DNA sequence analysis</t>
+  </si>
+  <si>
+    <t>Recombination Detection and Analysis Using RDP3</t>
+  </si>
+  <si>
+    <t>Suppression of Intrachromosomal Gene Conversion in Mammalian Cells by Small Degrees of Sequence Divergence</t>
+  </si>
+  <si>
+    <t>BMC plant biology</t>
+  </si>
+  <si>
+    <t>Here, through genomic synteny analyses, we identified duplicate genes generated by the Salicaceae common tetraploidization (SCT) in the poplar and willow genomes. We estimated that at least 0.58% and 0.25% of poplar and willow duplicates were affected by whole-gene conversion after the poplar-willow divergence, with more (5.73% and 2.66%) affected by partial-gene conversion.</t>
+  </si>
+  <si>
+    <t>Conversion between duplicated genes generated by polyploidization contributes to the divergence of poplar and willow</t>
+  </si>
+  <si>
+    <t>Asar et al.</t>
+  </si>
+  <si>
+    <t>Evolutionary rates of nuclear and organellar genomes are linked in land plants</t>
+  </si>
+  <si>
+    <t>Systematic biology</t>
+  </si>
+  <si>
+    <t>Evaluating the accuracy of methods for detecting correlated rates of molecular and morphological evolution</t>
+  </si>
+  <si>
+    <t>Grandchamp et al.</t>
+  </si>
+  <si>
+    <t>Population genomics reveals mechanisms and dynamics of de novo expressed open reading frame emergence in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Necsulea et al.</t>
+  </si>
+  <si>
+    <t>Revisiting the directional mutation pressure theory: The analysis of a particular genomic structure in Leishmania major</t>
+  </si>
+  <si>
+    <t>Directional mutation pressure theory: GC12~GC3</t>
+  </si>
+  <si>
+    <t>Fukushima et al.</t>
+  </si>
+  <si>
+    <t>Detecting macroevolutionary genotype–phenotype associations using error-corrected rates of protein convergence</t>
+  </si>
+  <si>
+    <t>https://github.com/kfuku52/csubst</t>
+  </si>
+  <si>
+    <t>Partha et al.</t>
+  </si>
+  <si>
+    <t>Robust Method for Detecting Convergent Shifts in Evolutionary Rates</t>
+  </si>
+  <si>
+    <t>Lu et al.</t>
+  </si>
+  <si>
+    <t>BMC Genomics</t>
+  </si>
+  <si>
+    <t>Profiling of gene duplication patterns of sequenced teleost genomes: evidence for rapid lineage-specific genome expansion mediated by recent tandem duplications</t>
+  </si>
+  <si>
+    <t>Zhong et al.</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>Divergent DNA Methylation Provides Insights into the Evolution of Duplicate Genes in Zebrafish</t>
+  </si>
+  <si>
+    <t>we found promoter methylation of duplicate genes generally decreased with evolutionary time as measured by synonymous substitution rate between paralogous duplicates (Ks).</t>
+  </si>
+  <si>
+    <t>Etten et al.</t>
+  </si>
+  <si>
+    <t>Environmental microbiology</t>
+  </si>
+  <si>
+    <t>Diverse fates of ancient horizontal gene transfers in extremophilic red algae</t>
+  </si>
+  <si>
+    <t>Rivera et al.</t>
+  </si>
+  <si>
+    <t>Genomic evidence for two functionally distinct gene classes</t>
+  </si>
+  <si>
+    <t>. We favor the interpretation that horizontal transfer has been continuous over time within the operational lineage</t>
+  </si>
+  <si>
+    <t>Post-transfer adaptation of HGT-acquired genes and contribution to guanine metabolic diversification in land plants</t>
+  </si>
+  <si>
+    <t>Science advances</t>
+  </si>
+  <si>
+    <t>Two horizontally acquired bacterial genes steer the exceptionally efficient and flexible nitrogenous waste cycling in whiteflies</t>
+  </si>
+  <si>
+    <t>they (functional HGT genes) must represent non-essential but extremely beneficial functions that are difficult to lose once gained. One avenue that could make successful transfers more likely is hitchhiking of genes with neutral or redundant functions with linked genes that have highly beneficial functions. When eukaryotes evolved the ability to eat other cells, it may have increased the chances of acquiring new genes in their genome, but because it fundamentally changed the kind of variation required by selection to drive adaptation, it also undercut the necessity for most such genes. Without a beneficial function driving selection, most genes acquired from food would simply be lost, resulting in a lower frequency of functional HGTs.</t>
+  </si>
+  <si>
+    <t>https://github.com/arzwa/Whale.jl/blob/master/scripts/orthofilter.py</t>
+  </si>
+  <si>
+    <t>Use this script to filter an OrthoFinder output data frame based on several criteria. The different criteria that can be used are: (0) at least one gene in both clades: for this you have to specify one clade as a comma-separated string of taxa, and the data frame will be filtered such that there is at least one gene both in the specified clade and its complement. (1) Outlier families: this filters out large families based on a Poisson outlier criterion, i.e. exclude families where the square root of the family size exceeds 2 x median(square root of family size). (2) Outlier lineages: This filters out families where at least one of the lineages has a number of genes that exceeds the Poisson outlier criterion. To specify for instance filter 0 and 1 (recommended filters), use '0,1' as last argument
+"""</t>
+  </si>
+  <si>
+    <t>A genome-wide view of the spectrum of spontaneous mutations in yeast</t>
+  </si>
+  <si>
+    <t>Gene duplication rate: 3.4e-6 per gene per generation in yeast</t>
+  </si>
+  <si>
+    <t>Lipinski et al.</t>
+  </si>
+  <si>
+    <t>High spontaneous rate of gene duplication in Caenorhabditis elegans</t>
+  </si>
+  <si>
+    <t>Gene duplication rate: 1e-7 per gene per generation in C. elegans</t>
+  </si>
+  <si>
+    <t>Schrider et al.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Rates and genomic consequences of spontaneous mutational events in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Gene duplication rate: 1.3e-7 per gene per generation in Drosophila</t>
+  </si>
+  <si>
+    <t>Gill et al.</t>
+  </si>
+  <si>
+    <t>Very Low Rates of Spontaneous Gene Deletions and Gene Duplications in Dictyostelium discoideum</t>
+  </si>
+  <si>
+    <t>Gene duplication rate: 1.18e-8 gene duplications per gene per generation, 3.93e-8 gene deletions per gene per generation, point mutation: 2.5e-11 per site per generation</t>
+  </si>
+  <si>
+    <t>Multiple large-scale gene and genome duplications during the evolution of hexapods</t>
+  </si>
+  <si>
+    <t>Ks plots: age distribution of gene duplications in several insects, aiming at whole genome duplications</t>
+  </si>
+  <si>
+    <t>Gu et al.</t>
+  </si>
+  <si>
+    <t>Extent of Gene Duplication in the Genomes of Drosophila, Nematode, and Yeast</t>
+  </si>
+  <si>
+    <t>for the duplicate pairs with the number of substitutions per synonymous site (KS) &lt; 0.01, Drosophila has only seven pairs, whereas yeast has 58 pairs and nematode has 153 pairs</t>
+  </si>
+  <si>
+    <t>Osada et al.</t>
+  </si>
+  <si>
+    <t>Plos genetics</t>
+  </si>
+  <si>
+    <t>Duplication and Gene Conversion in the Drosophila melanogaster Genome</t>
+  </si>
+  <si>
+    <t>We found 31 post-speciation duplicated genes, from which the rate of gene duplication (from one copy to two copies) is estimated to be 1.0×10−9 per single-copy gene per year.</t>
+  </si>
+  <si>
+    <t>Roelofs et al.</t>
+  </si>
+  <si>
+    <t>Multi-faceted analysis provides little evidence for recurrent whole-genome duplications during hexapod evolution</t>
+  </si>
+  <si>
+    <t>Our current study based on the analysis of whole-paranome KS distributions, intragenomic co-linearity, and gene tree reconciliation for 20 high-quality hexapod genomes confirms gene duplicate abundance in this taxonomic group, with estimated rates of small-scale duplication and loss on the order of 0.002 events/gene/My.</t>
+  </si>
+  <si>
+    <t>Duchene et al.</t>
+  </si>
+  <si>
+    <t>Microbial genomics</t>
+  </si>
+  <si>
+    <t>Genome-scale rates of evolutionary change in bacteria</t>
+  </si>
+  <si>
+    <t>The robustly estimated evolutionary rates spanned several orders of magnitude, from approximately 1e−5 to 1e−8 nucleotide substitutions per site year−1</t>
+  </si>
+  <si>
+    <t>Germline mutation rate are associated with neutral substitution rate. Neutral substitution rate: 0.001-0.003 substitutions per site per million years</t>
+  </si>
+  <si>
+    <t>Mather et al.</t>
+  </si>
+  <si>
+    <t>Ecology and evolution</t>
+  </si>
+  <si>
+    <t>A practical introduction to sequentially Markovian coalescent methods for estimating demographic history from genomic data</t>
+  </si>
+  <si>
+    <t>#Transposon defence</t>
+  </si>
+  <si>
+    <t>Elsner et al.</t>
+  </si>
+  <si>
+    <t>Longevity and transposon defense, the case of termite reproductives</t>
+  </si>
+  <si>
+    <t>Misteli et al.</t>
+  </si>
+  <si>
+    <t>Computational methods for analysing multiscale 3D genome organization</t>
+  </si>
+  <si>
+    <t>Delcher et al.</t>
+  </si>
+  <si>
+    <t>Bioinformatics</t>
+  </si>
+  <si>
+    <t>DAGchainer: a tool for mining segmental genome duplications and synteny</t>
+  </si>
+  <si>
+    <t>https://dagchainer.sourceforge.net/</t>
+  </si>
+  <si>
+    <t>http://www.timetree.org/</t>
+  </si>
+  <si>
+    <t>Wilson et al.</t>
+  </si>
+  <si>
+    <t>BMC ecology and evolution</t>
+  </si>
+  <si>
+    <t>Expectations of duplicate gene retention under the gene duplicability hypothesis</t>
+  </si>
+  <si>
+    <t>Mainly on patterns of gene retention after whole genome duplication?</t>
+  </si>
+  <si>
+    <t>https://github.com/msternke/protein-consensus-sequence</t>
+  </si>
+  <si>
+    <t>Exponential age distribution of paranome. For D. melanogaster, there are 10 pairs of duplicates with dS&lt;0.01, whichtranslates to a rate of origin of approximately 31new duplicates per genome per million years, orby using the estimated 13,601 genes per ge-nome (33), to 0.0023 per gene per millionyears.</t>
+  </si>
+  <si>
+    <t>https://www.math.wustl.edu/~sawyer/geneconv/  Infer gene conversion</t>
+  </si>
+  <si>
+    <t>Elliott et al.</t>
+  </si>
+  <si>
+    <t>Do larger genomes contain more diverse transposable elements?</t>
+  </si>
+  <si>
+    <t>Julca et al.</t>
+  </si>
+  <si>
+    <t>Phylogenomics Identifies an Ancestral Burst of Gene Duplications Predating the Diversification of Aphidomorpha</t>
+  </si>
+  <si>
+    <t>Fernandez et al.</t>
+  </si>
+  <si>
+    <t>Gene gain and loss across the metazoan tree of life</t>
+  </si>
+  <si>
+    <t>Our analysis uncovered a bimodal distribution of recruitment of orthologous genes, with most genes gained very ‘early’ (that is, at deep nodes) or very ‘late’, representing lineage-specific acquisitions. The emergence of animals was characterized by high values of gene birth and duplications.</t>
+  </si>
+  <si>
+    <t>Tetrimmer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1158,11 +2385,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
+      <color theme="10"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1462,7 +2708,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -1505,12 +2751,19 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -1544,6 +2797,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1884,9 +3138,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AAD981-FCA9-9947-BD19-60D757D7449B}">
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0"/>
+    <sheetView topLeftCell="A53" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -2016,73 +3272,87 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>29</v>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>558</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>564</v>
+      </c>
+      <c r="B11">
+        <v>2006</v>
+      </c>
+      <c r="C11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D11" t="s">
+        <v>563</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13">
-        <v>2012</v>
-      </c>
-      <c r="C13" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="B14">
-        <v>1996</v>
+        <v>2012</v>
       </c>
       <c r="C14" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B15">
-        <v>2022</v>
+        <v>1996</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B16">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B17">
         <v>2024</v>
@@ -2091,82 +3361,68 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B18">
         <v>2024</v>
       </c>
       <c r="C18" t="s">
+        <v>41</v>
+      </c>
+      <c r="D18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19" t="s">
         <v>46</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D19" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21">
-        <v>2022</v>
-      </c>
-      <c r="C21" t="s">
-        <v>50</v>
-      </c>
-      <c r="D21" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22">
-        <v>2013</v>
-      </c>
-      <c r="C22" t="s">
-        <v>53</v>
-      </c>
-      <c r="D22" t="s">
-        <v>54</v>
+        <v>558</v>
+      </c>
+      <c r="B20">
+        <v>2024</v>
+      </c>
+      <c r="C20" t="s">
+        <v>95</v>
+      </c>
+      <c r="D20" t="s">
+        <v>559</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23">
-        <v>2024</v>
-      </c>
-      <c r="C23" t="s">
-        <v>55</v>
-      </c>
-      <c r="D23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="B24">
-        <v>2011</v>
-      </c>
-      <c r="C24" t="s">
-        <v>57</v>
+        <v>2022</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>50</v>
+      </c>
+      <c r="E24" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -2185,40 +3441,91 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>2024</v>
+      </c>
+      <c r="C26" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27">
+        <v>2011</v>
+      </c>
+      <c r="C27" t="s">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28">
+        <v>2013</v>
+      </c>
+      <c r="C28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>59</v>
       </c>
-      <c r="B26">
+      <c r="B29">
         <v>2010</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C29" t="s">
         <v>60</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D29" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>555</v>
+      </c>
+      <c r="D30" t="s">
+        <v>556</v>
+      </c>
+      <c r="E30" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>63</v>
+        <v>603</v>
       </c>
       <c r="B31">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C31" t="s">
-        <v>64</v>
+        <v>211</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>604</v>
+      </c>
+      <c r="E31" t="s">
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>66</v>
+        <v>645</v>
       </c>
       <c r="B32">
         <v>2024</v>
@@ -2227,76 +3534,1031 @@
         <v>67</v>
       </c>
       <c r="D32" t="s">
-        <v>68</v>
-      </c>
-      <c r="E32" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>70</v>
+        <v>645</v>
       </c>
       <c r="B33">
         <v>2023</v>
       </c>
       <c r="C33" t="s">
-        <v>71</v>
+        <v>647</v>
       </c>
       <c r="D33" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>651</v>
+      </c>
+      <c r="B34">
+        <v>2006</v>
+      </c>
+      <c r="C34" t="s">
+        <v>133</v>
+      </c>
+      <c r="D34" t="s">
+        <v>652</v>
+      </c>
+      <c r="E34" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>701</v>
+      </c>
+      <c r="B35">
+        <v>2016</v>
+      </c>
+      <c r="C35" t="s">
+        <v>702</v>
+      </c>
+      <c r="D35" t="s">
+        <v>703</v>
+      </c>
+      <c r="E35" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>63</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="B39">
+        <v>2024</v>
+      </c>
+      <c r="C39" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" t="s">
+        <v>68</v>
+      </c>
+      <c r="E39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" t="s">
+        <v>71</v>
+      </c>
+      <c r="D40" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>571</v>
+      </c>
+      <c r="B41">
+        <v>2012</v>
+      </c>
+      <c r="C41" t="s">
+        <v>55</v>
+      </c>
+      <c r="D41" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>573</v>
+      </c>
+      <c r="B42">
+        <v>2022</v>
+      </c>
+      <c r="C42" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" t="s">
+        <v>574</v>
+      </c>
+      <c r="E42" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>576</v>
+      </c>
+      <c r="B43">
+        <v>2024</v>
+      </c>
+      <c r="C43" t="s">
+        <v>392</v>
+      </c>
+      <c r="D43" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>578</v>
+      </c>
+      <c r="B44">
+        <v>2003</v>
+      </c>
+      <c r="C44" t="s">
+        <v>491</v>
+      </c>
+      <c r="D44" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>584</v>
+      </c>
+      <c r="B45">
+        <v>2022</v>
+      </c>
+      <c r="C45" t="s">
+        <v>354</v>
+      </c>
+      <c r="D45" t="s">
+        <v>585</v>
+      </c>
+      <c r="E45" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>587</v>
+      </c>
+      <c r="B46">
+        <v>2004</v>
+      </c>
+      <c r="C46" t="s">
+        <v>86</v>
+      </c>
+      <c r="D46" t="s">
+        <v>588</v>
+      </c>
+      <c r="E46" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>589</v>
+      </c>
+      <c r="B47">
+        <v>2000</v>
+      </c>
+      <c r="C47" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" t="s">
+        <v>590</v>
+      </c>
+      <c r="E47" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>591</v>
+      </c>
+      <c r="B48">
+        <v>2020</v>
+      </c>
+      <c r="C48" t="s">
+        <v>521</v>
+      </c>
+      <c r="D48" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>593</v>
+      </c>
+      <c r="B49">
+        <v>2022</v>
+      </c>
+      <c r="C49" t="s">
+        <v>594</v>
+      </c>
+      <c r="D49" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>83</v>
+      </c>
+      <c r="B50">
+        <v>2016</v>
+      </c>
+      <c r="C50" t="s">
+        <v>596</v>
+      </c>
+      <c r="D50" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>598</v>
+      </c>
+      <c r="B51">
+        <v>2021</v>
+      </c>
+      <c r="C51" t="s">
+        <v>60</v>
+      </c>
+      <c r="D51" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>601</v>
+      </c>
+      <c r="B52">
+        <v>2005</v>
+      </c>
+      <c r="C52" t="s">
+        <v>211</v>
+      </c>
+      <c r="D52" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>605</v>
+      </c>
+      <c r="B53">
+        <v>2024</v>
+      </c>
+      <c r="C53" t="s">
+        <v>606</v>
+      </c>
+      <c r="D53" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>83</v>
+      </c>
+      <c r="B54">
+        <v>2022</v>
+      </c>
+      <c r="C54" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>659</v>
+      </c>
+      <c r="B55">
+        <v>2012</v>
+      </c>
+      <c r="C55" t="s">
+        <v>660</v>
+      </c>
+      <c r="D55" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>662</v>
+      </c>
+      <c r="B56">
+        <v>2016</v>
+      </c>
+      <c r="C56" t="s">
+        <v>663</v>
+      </c>
+      <c r="D56" t="s">
+        <v>664</v>
+      </c>
+      <c r="E56" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>589</v>
+      </c>
+      <c r="B57">
+        <v>2008</v>
+      </c>
+      <c r="C57" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" t="s">
+        <v>678</v>
+      </c>
+      <c r="E57" t="s">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>680</v>
+      </c>
+      <c r="B58">
+        <v>2011</v>
+      </c>
+      <c r="C58" t="s">
+        <v>535</v>
+      </c>
+      <c r="D58" t="s">
+        <v>681</v>
+      </c>
+      <c r="E58" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>683</v>
+      </c>
+      <c r="B59">
+        <v>2013</v>
+      </c>
+      <c r="C59" t="s">
+        <v>496</v>
+      </c>
+      <c r="D59" t="s">
+        <v>684</v>
+      </c>
+      <c r="E59" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>686</v>
+      </c>
+      <c r="B60">
+        <v>2022</v>
+      </c>
+      <c r="C60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>687</v>
+      </c>
+      <c r="E60" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>580</v>
+      </c>
+      <c r="B61">
+        <v>2017</v>
+      </c>
+      <c r="C61" t="s">
+        <v>581</v>
+      </c>
+      <c r="D61" t="s">
+        <v>582</v>
+      </c>
+      <c r="E61" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>83</v>
+      </c>
+      <c r="B62">
+        <v>2018</v>
+      </c>
+      <c r="C62" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" t="s">
+        <v>689</v>
+      </c>
+      <c r="E62" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>691</v>
+      </c>
+      <c r="B63">
+        <v>2002</v>
+      </c>
+      <c r="C63" t="s">
         <v>75</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D63" t="s">
+        <v>692</v>
+      </c>
+      <c r="E63" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>694</v>
+      </c>
+      <c r="B64">
+        <v>2008</v>
+      </c>
+      <c r="C64" t="s">
+        <v>695</v>
+      </c>
+      <c r="D64" t="s">
+        <v>696</v>
+      </c>
+      <c r="E64" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>719</v>
+      </c>
+      <c r="B65">
+        <v>2023</v>
+      </c>
+      <c r="C65" t="s">
+        <v>720</v>
+      </c>
+      <c r="D65" t="s">
+        <v>721</v>
+      </c>
+      <c r="E65" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>728</v>
+      </c>
+      <c r="B66">
+        <v>2019</v>
+      </c>
+      <c r="C66" t="s">
+        <v>75</v>
+      </c>
+      <c r="D66" t="s">
+        <v>729</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>598</v>
+      </c>
+      <c r="B67">
+        <v>2022</v>
+      </c>
+      <c r="C67" t="s">
+        <v>60</v>
+      </c>
+      <c r="D67" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>730</v>
+      </c>
+      <c r="B68">
+        <v>2020</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
+      </c>
+      <c r="D68" t="s">
+        <v>731</v>
+      </c>
+      <c r="E68" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>74</v>
+      </c>
+      <c r="B70">
+        <v>2023</v>
+      </c>
+      <c r="C70" t="s">
+        <v>75</v>
+      </c>
+      <c r="D70" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
         <v>77</v>
       </c>
-      <c r="B41">
+      <c r="B71">
         <v>2018</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C71" t="s">
         <v>78</v>
       </c>
-      <c r="D41" t="s">
+      <c r="D71" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>259</v>
+      </c>
+      <c r="B72">
+        <v>2019</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
+      </c>
+      <c r="D72" t="s">
+        <v>551</v>
+      </c>
+      <c r="E72" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>553</v>
+      </c>
+      <c r="B73">
+        <v>2015</v>
+      </c>
+      <c r="C73" t="s">
+        <v>60</v>
+      </c>
+      <c r="D73" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>565</v>
+      </c>
+      <c r="B74">
+        <v>2023</v>
+      </c>
+      <c r="C74" t="s">
+        <v>75</v>
+      </c>
+      <c r="D74" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>567</v>
+      </c>
+      <c r="B75">
+        <v>2016</v>
+      </c>
+      <c r="C75" t="s">
+        <v>569</v>
+      </c>
+      <c r="D75" t="s">
+        <v>568</v>
+      </c>
+      <c r="E75" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>649</v>
+      </c>
+      <c r="B76">
+        <v>2023</v>
+      </c>
+      <c r="C76" t="s">
+        <v>491</v>
+      </c>
+      <c r="D76" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
         <v>81</v>
       </c>
-      <c r="B48">
+      <c r="B80">
         <v>2007</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C80" t="s">
         <v>60</v>
       </c>
-      <c r="D48" t="s">
+      <c r="D80" t="s">
         <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>609</v>
+      </c>
+      <c r="B84">
+        <v>2009</v>
+      </c>
+      <c r="C84" t="s">
+        <v>302</v>
+      </c>
+      <c r="D84" t="s">
+        <v>610</v>
+      </c>
+      <c r="E84" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>587</v>
+      </c>
+      <c r="B85">
+        <v>2004</v>
+      </c>
+      <c r="C85" t="s">
+        <v>86</v>
+      </c>
+      <c r="D85" t="s">
+        <v>588</v>
+      </c>
+      <c r="E85" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>613</v>
+      </c>
+      <c r="B86">
+        <v>2009</v>
+      </c>
+      <c r="C86" t="s">
+        <v>496</v>
+      </c>
+      <c r="D86" t="s">
+        <v>614</v>
+      </c>
+      <c r="E86" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>615</v>
+      </c>
+      <c r="B87">
+        <v>2010</v>
+      </c>
+      <c r="C87" t="s">
+        <v>496</v>
+      </c>
+      <c r="D87" t="s">
+        <v>616</v>
+      </c>
+      <c r="E87" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>619</v>
+      </c>
+      <c r="B88">
+        <v>2002</v>
+      </c>
+      <c r="C88" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" t="s">
+        <v>620</v>
+      </c>
+      <c r="E88" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>622</v>
+      </c>
+      <c r="B89">
+        <v>1999</v>
+      </c>
+      <c r="C89" t="s">
+        <v>64</v>
+      </c>
+      <c r="D89" t="s">
+        <v>623</v>
+      </c>
+      <c r="E89" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>625</v>
+      </c>
+      <c r="B90">
+        <v>2007</v>
+      </c>
+      <c r="C90" t="s">
+        <v>496</v>
+      </c>
+      <c r="D90" t="s">
+        <v>626</v>
+      </c>
+      <c r="E90" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>630</v>
+      </c>
+      <c r="B91">
+        <v>2005</v>
+      </c>
+      <c r="D91" t="s">
+        <v>629</v>
+      </c>
+      <c r="E91" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>631</v>
+      </c>
+      <c r="B92">
+        <v>2006</v>
+      </c>
+      <c r="C92" t="s">
+        <v>75</v>
+      </c>
+      <c r="D92" t="s">
+        <v>632</v>
+      </c>
+      <c r="E92" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>634</v>
+      </c>
+      <c r="B93">
+        <v>1999</v>
+      </c>
+      <c r="C93" t="s">
+        <v>496</v>
+      </c>
+      <c r="D93" t="s">
+        <v>641</v>
+      </c>
+      <c r="E93" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>636</v>
+      </c>
+      <c r="B94">
+        <v>2005</v>
+      </c>
+      <c r="C94" t="s">
+        <v>637</v>
+      </c>
+      <c r="D94" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>625</v>
+      </c>
+      <c r="B95">
+        <v>2002</v>
+      </c>
+      <c r="C95" t="s">
+        <v>642</v>
+      </c>
+      <c r="D95" t="s">
+        <v>644</v>
+      </c>
+      <c r="E95" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>422</v>
+      </c>
+      <c r="B98">
+        <v>2015</v>
+      </c>
+      <c r="C98" t="s">
+        <v>423</v>
+      </c>
+      <c r="D98" t="s">
+        <v>424</v>
+      </c>
+      <c r="E98" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>478</v>
+      </c>
+      <c r="B99">
+        <v>2015</v>
+      </c>
+      <c r="C99" t="s">
+        <v>466</v>
+      </c>
+      <c r="D99" t="s">
+        <v>479</v>
+      </c>
+      <c r="E99" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>507</v>
+      </c>
+      <c r="B100">
+        <v>2023</v>
+      </c>
+      <c r="C100" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" t="s">
+        <v>508</v>
+      </c>
+      <c r="E100" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>237</v>
+      </c>
+      <c r="B101">
+        <v>2016</v>
+      </c>
+      <c r="C101" t="s">
+        <v>23</v>
+      </c>
+      <c r="D101" t="s">
+        <v>238</v>
+      </c>
+      <c r="E101" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>259</v>
+      </c>
+      <c r="B102">
+        <v>2020</v>
+      </c>
+      <c r="C102" t="s">
+        <v>200</v>
+      </c>
+      <c r="D102" t="s">
+        <v>545</v>
+      </c>
+      <c r="E102" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>272</v>
+      </c>
+      <c r="B103">
+        <v>2020</v>
+      </c>
+      <c r="C103" t="s">
+        <v>273</v>
+      </c>
+      <c r="D103" t="s">
+        <v>274</v>
+      </c>
+      <c r="E103" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>562</v>
+      </c>
+      <c r="B104">
+        <v>2012</v>
+      </c>
+      <c r="C104" t="s">
+        <v>211</v>
+      </c>
+      <c r="D104" t="s">
+        <v>560</v>
+      </c>
+      <c r="E104" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>609</v>
+      </c>
+      <c r="B105">
+        <v>2009</v>
+      </c>
+      <c r="C105" t="s">
+        <v>302</v>
+      </c>
+      <c r="D105" t="s">
+        <v>610</v>
+      </c>
+      <c r="E105" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>698</v>
+      </c>
+      <c r="B106">
+        <v>2020</v>
+      </c>
+      <c r="C106" t="s">
+        <v>488</v>
+      </c>
+      <c r="D106" t="s">
+        <v>699</v>
+      </c>
+      <c r="E106" t="s">
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -2306,10 +4568,1362 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9BB61D-DF38-7741-BE43-CD14BB10F1E0}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E103"/>
   <sheetViews>
-    <sheetView zoomScale="226" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A78" zoomScale="226" workbookViewId="0">
+      <selection activeCell="E86" sqref="E86"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="10.83203125" style="3"/>
+    <col min="4" max="4" width="31.1640625" style="3" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="B4" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B5" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B8" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>673</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B12" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="B13" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B17" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="B24" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="B26" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="B28" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="B29" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="B30" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="B34" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>488</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="B37" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="B38" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="B39" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="B40" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B41" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="B42" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="B44" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D44" s="3" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="B46" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="B47" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>667</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="3" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="B50" s="3">
+        <v>2007</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="B52" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="B53" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="B54" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B55" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="B56" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B57" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="B58" s="3">
+        <v>2004</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="B59" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="B60" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="B61" s="3">
+        <v>2014</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="B62" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="B63" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="s">
+        <v>669</v>
+      </c>
+      <c r="B64" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>670</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B67" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B71" s="3">
+        <v>2010</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E71" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D72" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="3">
+        <v>2021</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B74" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B75" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B76" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="B77" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="B78" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B79" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>286</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B83" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D83" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B84" s="3">
+        <v>2008</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D84" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D85" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B86" s="3">
+        <v>2020</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E86" s="5"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B87" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D87" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B88" s="3">
+        <v>2022</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B89" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D89" s="3" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="B90" s="3">
+        <v>2005</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="B91" s="3">
+        <v>2000</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D91" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="B92" s="3">
+        <v>2016</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="D92" s="3" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B93" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" s="3" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="B94" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="B95" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="s">
+        <v>498</v>
+      </c>
+      <c r="B96" s="3">
+        <v>2013</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="D96" s="3" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="3" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B99" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="B100" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="B101" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="B102" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>348</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916432F7-C74C-AD4A-ABA8-73E28AD7371B}">
+  <dimension ref="A1:E9"/>
+  <sheetViews>
+    <sheetView zoomScale="307" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2333,1222 +5947,111 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>324</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>280</v>
+      </c>
+      <c r="B3">
+        <v>2009</v>
+      </c>
+      <c r="C3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>282</v>
+      </c>
+      <c r="B4">
+        <v>2012</v>
+      </c>
+      <c r="C4" t="s">
+        <v>283</v>
+      </c>
+      <c r="D4" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>2018</v>
+      </c>
+      <c r="C5" t="s">
+        <v>286</v>
+      </c>
+      <c r="D5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6">
+        <v>2011</v>
+      </c>
+      <c r="C6" t="s">
+        <v>290</v>
+      </c>
+      <c r="D6" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27">
-        <v>2011</v>
-      </c>
-      <c r="C27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>87</v>
-      </c>
-      <c r="B28">
-        <v>2017</v>
-      </c>
-      <c r="C28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29">
-        <v>2008</v>
-      </c>
-      <c r="C29" t="s">
-        <v>91</v>
-      </c>
-      <c r="D29" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>93</v>
-      </c>
-      <c r="B30">
-        <v>2024</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
-      </c>
-      <c r="D30" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>95</v>
-      </c>
-      <c r="B31">
-        <v>2012</v>
-      </c>
-      <c r="C31" t="s">
-        <v>96</v>
-      </c>
-      <c r="D31" t="s">
-        <v>97</v>
-      </c>
-      <c r="E31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B32">
-        <v>2019</v>
-      </c>
-      <c r="C32" t="s">
-        <v>100</v>
-      </c>
-      <c r="D32" t="s">
-        <v>101</v>
-      </c>
-      <c r="E32" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>103</v>
-      </c>
-      <c r="B33">
-        <v>2020</v>
-      </c>
-      <c r="C33" t="s">
-        <v>104</v>
-      </c>
-      <c r="D33" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34">
-        <v>2007</v>
-      </c>
-      <c r="C34" t="s">
-        <v>23</v>
-      </c>
-      <c r="D34" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35">
-        <v>2014</v>
-      </c>
-      <c r="C35" t="s">
-        <v>110</v>
-      </c>
-      <c r="D35" t="s">
-        <v>111</v>
-      </c>
-      <c r="E35" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36">
-        <v>2010</v>
-      </c>
-      <c r="C36" t="s">
-        <v>23</v>
-      </c>
-      <c r="D36" t="s">
-        <v>114</v>
-      </c>
-      <c r="E36" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>116</v>
-      </c>
-      <c r="B37">
-        <v>2015</v>
-      </c>
-      <c r="C37" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>118</v>
-      </c>
-      <c r="B38">
-        <v>2019</v>
-      </c>
-      <c r="C38" t="s">
-        <v>119</v>
-      </c>
-      <c r="D38" t="s">
-        <v>120</v>
-      </c>
-      <c r="E38" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>122</v>
-      </c>
-      <c r="B39">
-        <v>2014</v>
-      </c>
-      <c r="C39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D39" t="s">
-        <v>124</v>
-      </c>
-      <c r="E39" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40">
+        <v>292</v>
+      </c>
+      <c r="B7">
+        <v>2000</v>
+      </c>
+      <c r="C7" t="s">
+        <v>211</v>
+      </c>
+      <c r="D7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>294</v>
+      </c>
+      <c r="B8">
+        <v>2018</v>
+      </c>
+      <c r="C8" t="s">
+        <v>295</v>
+      </c>
+      <c r="D8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>247</v>
+      </c>
+      <c r="B9">
         <v>2021</v>
       </c>
-      <c r="C40" t="s">
-        <v>34</v>
-      </c>
-      <c r="D40" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>128</v>
-      </c>
-      <c r="B41">
-        <v>2023</v>
-      </c>
-      <c r="C41" t="s">
-        <v>129</v>
-      </c>
-      <c r="D41" t="s">
-        <v>130</v>
-      </c>
-      <c r="E41" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>132</v>
-      </c>
-      <c r="B42">
-        <v>2020</v>
-      </c>
-      <c r="C42" t="s">
-        <v>34</v>
-      </c>
-      <c r="D42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>135</v>
-      </c>
-      <c r="B43">
-        <v>2007</v>
-      </c>
-      <c r="C43" t="s">
-        <v>136</v>
-      </c>
-      <c r="D43" t="s">
-        <v>137</v>
-      </c>
-      <c r="E43" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>139</v>
-      </c>
-      <c r="B44">
-        <v>2007</v>
-      </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
-      <c r="D44" t="s">
-        <v>140</v>
-      </c>
-      <c r="E44" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>142</v>
-      </c>
-      <c r="B45">
-        <v>2015</v>
-      </c>
-      <c r="C45" t="s">
-        <v>17</v>
-      </c>
-      <c r="D45" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>146</v>
-      </c>
-      <c r="B49">
-        <v>2022</v>
-      </c>
-      <c r="C49" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>148</v>
-      </c>
-      <c r="B50">
-        <v>2021</v>
-      </c>
-      <c r="C50" t="s">
-        <v>84</v>
-      </c>
-      <c r="D50" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>150</v>
-      </c>
-      <c r="B51">
-        <v>2012</v>
-      </c>
-      <c r="C51" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" t="s">
-        <v>152</v>
-      </c>
-      <c r="E51" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>106</v>
-      </c>
-      <c r="B52">
-        <v>2007</v>
-      </c>
-      <c r="C52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>107</v>
-      </c>
-      <c r="E52" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>154</v>
-      </c>
-      <c r="B53">
-        <v>2013</v>
-      </c>
-      <c r="C53" t="s">
-        <v>155</v>
-      </c>
-      <c r="D53" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>116</v>
-      </c>
-      <c r="B54">
-        <v>2015</v>
-      </c>
-      <c r="C54" t="s">
-        <v>91</v>
-      </c>
-      <c r="D54" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>157</v>
-      </c>
-      <c r="B55">
-        <v>2022</v>
-      </c>
-      <c r="C55" t="s">
-        <v>158</v>
-      </c>
-      <c r="D55" t="s">
-        <v>159</v>
-      </c>
-      <c r="E55" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>161</v>
-      </c>
-      <c r="B56">
-        <v>2005</v>
-      </c>
-      <c r="C56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D56" t="s">
-        <v>162</v>
-      </c>
-      <c r="E56" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>208</v>
-      </c>
-      <c r="B76">
-        <v>2021</v>
-      </c>
-      <c r="C76" t="s">
-        <v>209</v>
-      </c>
-      <c r="D76" t="s">
-        <v>210</v>
-      </c>
-      <c r="E76" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>212</v>
-      </c>
-      <c r="B77">
-        <v>2018</v>
-      </c>
-      <c r="C77" t="s">
-        <v>166</v>
-      </c>
-      <c r="D77" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78">
-        <v>2024</v>
-      </c>
-      <c r="C78" t="s">
-        <v>215</v>
-      </c>
-      <c r="D78" t="s">
-        <v>216</v>
-      </c>
-      <c r="E78" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>218</v>
-      </c>
-      <c r="B79">
-        <v>2024</v>
-      </c>
-      <c r="C79" t="s">
-        <v>84</v>
-      </c>
-      <c r="D79" t="s">
-        <v>219</v>
-      </c>
-      <c r="E79" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>208</v>
-      </c>
-      <c r="B82">
-        <v>2021</v>
-      </c>
-      <c r="C82" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82" t="s">
-        <v>210</v>
-      </c>
-      <c r="E82" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>223</v>
-      </c>
-      <c r="B83">
-        <v>2021</v>
-      </c>
-      <c r="C83" t="s">
-        <v>224</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="C9" t="s">
         <v>225</v>
       </c>
-      <c r="E83" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>227</v>
-      </c>
-      <c r="B84">
-        <v>2023</v>
-      </c>
-      <c r="C84" t="s">
-        <v>10</v>
-      </c>
-      <c r="D84" t="s">
-        <v>228</v>
-      </c>
-      <c r="E84" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>230</v>
-      </c>
-      <c r="B85">
-        <v>2023</v>
-      </c>
-      <c r="C85" t="s">
-        <v>231</v>
-      </c>
-      <c r="D85" t="s">
-        <v>232</v>
-      </c>
-      <c r="E85" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>234</v>
-      </c>
-      <c r="B86">
-        <v>2022</v>
-      </c>
-      <c r="C86" t="s">
-        <v>235</v>
-      </c>
-      <c r="D86" t="s">
-        <v>236</v>
-      </c>
-      <c r="E86" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>238</v>
-      </c>
-      <c r="B87">
-        <v>2015</v>
-      </c>
-      <c r="C87" t="s">
-        <v>151</v>
-      </c>
-      <c r="D87" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>240</v>
-      </c>
-      <c r="B88">
-        <v>2009</v>
-      </c>
-      <c r="C88" t="s">
-        <v>241</v>
-      </c>
-      <c r="D88" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>243</v>
-      </c>
-      <c r="B89">
-        <v>2016</v>
-      </c>
-      <c r="C89" t="s">
-        <v>23</v>
-      </c>
-      <c r="D89" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>245</v>
-      </c>
-      <c r="B90">
-        <v>2019</v>
-      </c>
-      <c r="C90" t="s">
-        <v>246</v>
-      </c>
-      <c r="D90" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+      <c r="D9" t="s">
         <v>248</v>
       </c>
-      <c r="B91">
-        <v>2023</v>
-      </c>
-      <c r="C91" t="s">
-        <v>85</v>
-      </c>
-      <c r="D91" t="s">
+      <c r="E9" t="s">
         <v>249</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>250</v>
-      </c>
-      <c r="B92">
-        <v>2007</v>
-      </c>
-      <c r="C92" t="s">
-        <v>91</v>
-      </c>
-      <c r="D92" t="s">
-        <v>251</v>
-      </c>
-      <c r="E92" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>253</v>
-      </c>
-      <c r="B93">
-        <v>2021</v>
-      </c>
-      <c r="C93" t="s">
-        <v>231</v>
-      </c>
-      <c r="D93" t="s">
-        <v>254</v>
-      </c>
-      <c r="E93" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>208</v>
-      </c>
-      <c r="B94">
-        <v>2014</v>
-      </c>
-      <c r="C94" t="s">
-        <v>235</v>
-      </c>
-      <c r="D94" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>258</v>
-      </c>
-      <c r="B97">
-        <v>2023</v>
-      </c>
-      <c r="C97" t="s">
-        <v>259</v>
-      </c>
-      <c r="D97" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>261</v>
-      </c>
-      <c r="B98">
-        <v>2023</v>
-      </c>
-      <c r="C98" t="s">
-        <v>235</v>
-      </c>
-      <c r="D98" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>263</v>
-      </c>
-      <c r="B99">
-        <v>2023</v>
-      </c>
-      <c r="C99" t="s">
-        <v>264</v>
-      </c>
-      <c r="D99" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>266</v>
-      </c>
-      <c r="B100">
-        <v>2014</v>
-      </c>
-      <c r="C100" t="s">
-        <v>85</v>
-      </c>
-      <c r="D100" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>268</v>
-      </c>
-      <c r="B101">
-        <v>2017</v>
-      </c>
-      <c r="C101" t="s">
-        <v>235</v>
-      </c>
-      <c r="D101" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>270</v>
-      </c>
-      <c r="B102">
-        <v>2021</v>
-      </c>
-      <c r="C102" t="s">
-        <v>271</v>
-      </c>
-      <c r="D102" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>273</v>
-      </c>
-      <c r="B103">
-        <v>2023</v>
-      </c>
-      <c r="C103" t="s">
-        <v>85</v>
-      </c>
-      <c r="D103" t="s">
-        <v>274</v>
-      </c>
-      <c r="E103" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>275</v>
-      </c>
-      <c r="B104">
-        <v>2023</v>
-      </c>
-      <c r="C104" t="s">
-        <v>276</v>
-      </c>
-      <c r="D104" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>279</v>
-      </c>
-      <c r="B108">
-        <v>2020</v>
-      </c>
-      <c r="C108" t="s">
-        <v>280</v>
-      </c>
-      <c r="D108" t="s">
-        <v>281</v>
-      </c>
-      <c r="E108" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>283</v>
-      </c>
-      <c r="B109">
-        <v>2023</v>
-      </c>
-      <c r="C109" t="s">
-        <v>85</v>
-      </c>
-      <c r="D109" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>285</v>
-      </c>
-      <c r="B110">
-        <v>2019</v>
-      </c>
-      <c r="C110" t="s">
-        <v>182</v>
-      </c>
-      <c r="D110" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>288</v>
-      </c>
-      <c r="B114">
-        <v>2009</v>
-      </c>
-      <c r="C114" t="s">
-        <v>280</v>
-      </c>
-      <c r="D114" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>290</v>
-      </c>
-      <c r="B115">
-        <v>2012</v>
-      </c>
-      <c r="C115" t="s">
-        <v>291</v>
-      </c>
-      <c r="D115" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>293</v>
-      </c>
-      <c r="B116">
-        <v>2018</v>
-      </c>
-      <c r="C116" t="s">
-        <v>294</v>
-      </c>
-      <c r="D116" t="s">
-        <v>295</v>
-      </c>
-      <c r="E116" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>297</v>
-      </c>
-      <c r="B117">
-        <v>2011</v>
-      </c>
-      <c r="C117" t="s">
-        <v>298</v>
-      </c>
-      <c r="D117" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>300</v>
-      </c>
-      <c r="B118">
-        <v>2000</v>
-      </c>
-      <c r="C118" t="s">
-        <v>215</v>
-      </c>
-      <c r="D118" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>302</v>
-      </c>
-      <c r="B119">
-        <v>2018</v>
-      </c>
-      <c r="C119" t="s">
-        <v>303</v>
-      </c>
-      <c r="D119" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>253</v>
-      </c>
-      <c r="B120">
-        <v>2021</v>
-      </c>
-      <c r="C120" t="s">
-        <v>231</v>
-      </c>
-      <c r="D120" t="s">
-        <v>254</v>
-      </c>
-      <c r="E120" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>270</v>
-      </c>
-      <c r="B123">
-        <v>2016</v>
-      </c>
-      <c r="C123" t="s">
-        <v>306</v>
-      </c>
-      <c r="D123" t="s">
-        <v>307</v>
-      </c>
-      <c r="E123" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>309</v>
-      </c>
-      <c r="B124">
-        <v>2020</v>
-      </c>
-      <c r="C124" t="s">
-        <v>310</v>
-      </c>
-      <c r="D124" t="s">
-        <v>311</v>
-      </c>
-      <c r="E124" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>313</v>
-      </c>
-      <c r="B125">
-        <v>2022</v>
-      </c>
-      <c r="C125" t="s">
-        <v>314</v>
-      </c>
-      <c r="D125" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>316</v>
-      </c>
-      <c r="B126">
-        <v>2015</v>
-      </c>
-      <c r="C126" t="s">
-        <v>34</v>
-      </c>
-      <c r="D126" t="s">
-        <v>317</v>
-      </c>
-      <c r="E126" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>319</v>
-      </c>
-      <c r="B127">
-        <v>2013</v>
-      </c>
-      <c r="C127" t="s">
-        <v>320</v>
-      </c>
-      <c r="D127" t="s">
-        <v>321</v>
-      </c>
-      <c r="E127" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>6</v>
-      </c>
-      <c r="B130">
-        <v>2012</v>
-      </c>
-      <c r="C130" t="s">
-        <v>7</v>
-      </c>
-      <c r="D130" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>9</v>
-      </c>
-      <c r="B131">
-        <v>2004</v>
-      </c>
-      <c r="C131" t="s">
-        <v>10</v>
-      </c>
-      <c r="D131" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>30</v>
-      </c>
-      <c r="B135">
-        <v>2012</v>
-      </c>
-      <c r="C135" t="s">
-        <v>31</v>
-      </c>
-      <c r="D135" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>33</v>
-      </c>
-      <c r="B136">
-        <v>1996</v>
-      </c>
-      <c r="C136" t="s">
-        <v>34</v>
-      </c>
-      <c r="D136" t="s">
-        <v>35</v>
-      </c>
-      <c r="E136" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -3556,12 +6059,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D918E45-F55E-644C-8D94-1CC1713EA928}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView zoomScale="200" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A3" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3583,17 +6086,354 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D3" t="s">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B4">
+        <v>2018</v>
+      </c>
+      <c r="C4" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>210</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>211</v>
+      </c>
+      <c r="D5" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>84</v>
+      </c>
+      <c r="D6" t="s">
+        <v>215</v>
+      </c>
+      <c r="E6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>204</v>
+      </c>
+      <c r="B9">
+        <v>2014</v>
+      </c>
+      <c r="C9" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B10">
+        <v>2016</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>240</v>
+      </c>
+      <c r="D11" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>204</v>
+      </c>
+      <c r="B15">
+        <v>2021</v>
+      </c>
+      <c r="C15" t="s">
+        <v>205</v>
+      </c>
+      <c r="D15" t="s">
+        <v>206</v>
+      </c>
+      <c r="E15" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>218</v>
+      </c>
+      <c r="B16">
+        <v>2021</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>224</v>
+      </c>
+      <c r="B17">
+        <v>2023</v>
+      </c>
+      <c r="C17" t="s">
+        <v>225</v>
+      </c>
+      <c r="D17" t="s">
+        <v>226</v>
+      </c>
+      <c r="E17" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B18">
+        <v>2015</v>
+      </c>
+      <c r="C18" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>242</v>
+      </c>
+      <c r="B19">
+        <v>2023</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>247</v>
+      </c>
+      <c r="B20">
+        <v>2021</v>
+      </c>
+      <c r="C20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D20" t="s">
+        <v>248</v>
+      </c>
+      <c r="E20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>726</v>
+      </c>
+      <c r="B21">
+        <v>2015</v>
+      </c>
+      <c r="C21" t="s">
+        <v>521</v>
+      </c>
+      <c r="D21" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>221</v>
+      </c>
+      <c r="B24">
+        <v>2023</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>222</v>
+      </c>
+      <c r="E24" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25">
+        <v>2022</v>
+      </c>
+      <c r="C25" t="s">
+        <v>229</v>
+      </c>
+      <c r="D25" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>234</v>
+      </c>
+      <c r="B28">
+        <v>2009</v>
+      </c>
+      <c r="C28" t="s">
+        <v>235</v>
+      </c>
+      <c r="D28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29">
+        <v>2007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" t="s">
+        <v>245</v>
+      </c>
+      <c r="E29" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>710</v>
+      </c>
+      <c r="B33">
+        <v>2018</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>711</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12AEADB-CD82-BE44-94D2-3A2401D0376A}">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView zoomScale="249" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A27" sqref="A27:XFD27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3617,77 +6457,105 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>164</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>375</v>
       </c>
       <c r="B3">
-        <v>2019</v>
+        <v>2015</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>376</v>
       </c>
       <c r="D3" t="s">
-        <v>167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>168</v>
+        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>378</v>
       </c>
       <c r="B4">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>379</v>
       </c>
       <c r="D4" t="s">
-        <v>171</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>381</v>
       </c>
       <c r="B5">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C5" t="s">
-        <v>173</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>174</v>
-      </c>
-      <c r="E5" t="s">
-        <v>175</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="B6">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C6" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="D6" t="s">
-        <v>178</v>
+        <v>414</v>
       </c>
       <c r="E6" t="s">
-        <v>179</v>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>415</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="D7" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>417</v>
+      </c>
+      <c r="B8">
+        <v>2022</v>
+      </c>
+      <c r="C8" t="s">
+        <v>418</v>
+      </c>
+      <c r="D8" t="s">
+        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>426</v>
+      </c>
+      <c r="B9">
+        <v>2015</v>
+      </c>
+      <c r="C9" t="s">
+        <v>408</v>
+      </c>
+      <c r="D9" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -3709,109 +6577,550 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>185</v>
+        <v>417</v>
       </c>
       <c r="B11">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>505</v>
       </c>
       <c r="D11" t="s">
-        <v>187</v>
-      </c>
-      <c r="E11" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>190</v>
-      </c>
-      <c r="D12" t="s">
-        <v>191</v>
-      </c>
-      <c r="E12" t="s">
-        <v>192</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>193</v>
-      </c>
-      <c r="B13">
-        <v>2007</v>
-      </c>
-      <c r="C13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>194</v>
-      </c>
-      <c r="E13" t="s">
-        <v>195</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="B14">
-        <v>2008</v>
+        <v>2018</v>
       </c>
       <c r="C14" t="s">
-        <v>197</v>
+        <v>171</v>
+      </c>
+      <c r="D14" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="B15">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C15" t="s">
-        <v>88</v>
+        <v>174</v>
       </c>
       <c r="D15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>200</v>
-      </c>
-      <c r="B16">
-        <v>2021</v>
-      </c>
-      <c r="C16" t="s">
-        <v>201</v>
-      </c>
-      <c r="D16" t="s">
-        <v>202</v>
+        <v>175</v>
+      </c>
+      <c r="E15" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>203</v>
-      </c>
-      <c r="B17">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>388</v>
+      </c>
+      <c r="B18">
+        <v>1997</v>
+      </c>
+      <c r="C18" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>406</v>
+      </c>
+      <c r="B19">
+        <v>2009</v>
+      </c>
+      <c r="C19" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>406</v>
+      </c>
+      <c r="B20">
+        <v>2012</v>
+      </c>
+      <c r="C20" t="s">
+        <v>408</v>
+      </c>
+      <c r="D20" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>410</v>
+      </c>
+      <c r="B21">
+        <v>2011</v>
+      </c>
+      <c r="C21" t="s">
+        <v>154</v>
+      </c>
+      <c r="D21" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B22">
+        <v>2018</v>
+      </c>
+      <c r="C22" t="s">
+        <v>154</v>
+      </c>
+      <c r="D22" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>443</v>
+      </c>
+      <c r="B23">
+        <v>2013</v>
+      </c>
+      <c r="C23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D23" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>372</v>
+      </c>
+      <c r="B24">
+        <v>2003</v>
+      </c>
+      <c r="C24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>447</v>
+      </c>
+      <c r="B25">
+        <v>2000</v>
+      </c>
+      <c r="C25" t="s">
+        <v>190</v>
+      </c>
+      <c r="D25" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>449</v>
+      </c>
+      <c r="B26">
         <v>2020</v>
       </c>
-      <c r="C17" t="s">
-        <v>204</v>
-      </c>
-      <c r="D17" t="s">
-        <v>205</v>
-      </c>
-      <c r="E17" t="s">
-        <v>206</v>
+      <c r="C26" t="s">
+        <v>451</v>
+      </c>
+      <c r="D26" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>282</v>
+      </c>
+      <c r="B27">
+        <v>2012</v>
+      </c>
+      <c r="C27" t="s">
+        <v>283</v>
+      </c>
+      <c r="D27" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>372</v>
+      </c>
+      <c r="B30">
+        <v>2007</v>
+      </c>
+      <c r="C30" t="s">
+        <v>392</v>
+      </c>
+      <c r="D30" t="s">
+        <v>193</v>
+      </c>
+      <c r="E30" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>393</v>
+      </c>
+      <c r="B31">
+        <v>2010</v>
+      </c>
+      <c r="C31" t="s">
+        <v>395</v>
+      </c>
+      <c r="D31" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>396</v>
+      </c>
+      <c r="B32">
+        <v>2015</v>
+      </c>
+      <c r="C32" t="s">
+        <v>397</v>
+      </c>
+      <c r="D32" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>399</v>
+      </c>
+      <c r="B33">
+        <v>2019</v>
+      </c>
+      <c r="C33" t="s">
+        <v>401</v>
+      </c>
+      <c r="D33" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>198</v>
+      </c>
+      <c r="B34">
+        <v>2021</v>
+      </c>
+      <c r="C34" t="s">
+        <v>402</v>
+      </c>
+      <c r="D34" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>404</v>
+      </c>
+      <c r="B35">
+        <v>2023</v>
+      </c>
+      <c r="C35" t="s">
+        <v>405</v>
+      </c>
+      <c r="D35" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>177</v>
+      </c>
+      <c r="B36">
+        <v>2017</v>
+      </c>
+      <c r="C36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D36" t="s">
+        <v>179</v>
+      </c>
+      <c r="E36" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>185</v>
+      </c>
+      <c r="B37">
+        <v>2021</v>
+      </c>
+      <c r="C37" t="s">
+        <v>186</v>
+      </c>
+      <c r="D37" t="s">
+        <v>187</v>
+      </c>
+      <c r="E37" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>189</v>
+      </c>
+      <c r="B38">
+        <v>2021</v>
+      </c>
+      <c r="C38" t="s">
+        <v>190</v>
+      </c>
+      <c r="D38" t="s">
+        <v>191</v>
+      </c>
+      <c r="E38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>199</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39" t="s">
+        <v>200</v>
+      </c>
+      <c r="D39" t="s">
+        <v>201</v>
+      </c>
+      <c r="E39" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>195</v>
+      </c>
+      <c r="B40">
+        <v>2008</v>
+      </c>
+      <c r="D40" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>429</v>
+      </c>
+      <c r="B41">
+        <v>2009</v>
+      </c>
+      <c r="C41" t="s">
+        <v>430</v>
+      </c>
+      <c r="D41" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>436</v>
+      </c>
+      <c r="B42">
+        <v>2015</v>
+      </c>
+      <c r="C42" t="s">
+        <v>397</v>
+      </c>
+      <c r="D42" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>436</v>
+      </c>
+      <c r="B43">
+        <v>2018</v>
+      </c>
+      <c r="C43" t="s">
+        <v>438</v>
+      </c>
+      <c r="D43" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>440</v>
+      </c>
+      <c r="B44">
+        <v>2019</v>
+      </c>
+      <c r="C44" t="s">
+        <v>441</v>
+      </c>
+      <c r="D44" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>452</v>
+      </c>
+      <c r="B45">
+        <v>2010</v>
+      </c>
+      <c r="C45" t="s">
+        <v>454</v>
+      </c>
+      <c r="D45" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>434</v>
+      </c>
+      <c r="B46">
+        <v>2011</v>
+      </c>
+      <c r="C46" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>457</v>
+      </c>
+      <c r="B47">
+        <v>2004</v>
+      </c>
+      <c r="C47" t="s">
+        <v>458</v>
+      </c>
+      <c r="D47" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>459</v>
+      </c>
+      <c r="B48">
+        <v>2008</v>
+      </c>
+      <c r="C48" t="s">
+        <v>75</v>
+      </c>
+      <c r="D48" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>459</v>
+      </c>
+      <c r="B49">
+        <v>2009</v>
+      </c>
+      <c r="C49" t="s">
+        <v>23</v>
+      </c>
+      <c r="D49" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>462</v>
+      </c>
+      <c r="B50">
+        <v>2013</v>
+      </c>
+      <c r="C50" t="s">
+        <v>463</v>
+      </c>
+      <c r="D50" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>139</v>
+      </c>
+      <c r="B51">
+        <v>2014</v>
+      </c>
+      <c r="C51" t="s">
+        <v>23</v>
+      </c>
+      <c r="D51" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>396</v>
+      </c>
+      <c r="B52">
+        <v>2007</v>
+      </c>
+      <c r="C52" t="s">
+        <v>395</v>
+      </c>
+      <c r="D52" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>514</v>
+      </c>
+      <c r="B53">
+        <v>2006</v>
+      </c>
+      <c r="C53" t="s">
+        <v>516</v>
+      </c>
+      <c r="D53" t="s">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -3819,12 +7128,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F443CB-6CF7-B749-AE57-0ED5E546B9BC}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView zoomScale="167" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView zoomScale="259" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3846,17 +7155,502 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D4" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>256</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D5" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>229</v>
+      </c>
+      <c r="D7" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>266</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+      <c r="E9" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>268</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>269</v>
+      </c>
+      <c r="D10" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>488</v>
+      </c>
+      <c r="D11" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>225</v>
+      </c>
+      <c r="D12" t="s">
+        <v>248</v>
+      </c>
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B17">
+        <v>2014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>278</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>272</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="s">
+        <v>273</v>
+      </c>
+      <c r="D19" t="s">
+        <v>274</v>
+      </c>
+      <c r="E19" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>276</v>
+      </c>
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>181</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>446</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A901234-6AE5-E242-9984-3158A5CD98B9}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="209" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>263</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
+      <c r="E3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>301</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>302</v>
+      </c>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>306</v>
+      </c>
+      <c r="D5" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>309</v>
+      </c>
+      <c r="E6" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7">
+        <v>2013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
+        <v>313</v>
+      </c>
+      <c r="E7" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>349</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D8" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>654</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>655</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>657</v>
+      </c>
+      <c r="B10">
+        <v>2019</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
+      <c r="D11" s="2" t="s">
+        <v>676</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>706</v>
+      </c>
+      <c r="B12">
+        <v>2020</v>
+      </c>
+      <c r="C12" t="s">
+        <v>707</v>
+      </c>
+      <c r="D12" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>712</v>
+      </c>
+      <c r="B13">
+        <v>2023</v>
+      </c>
+      <c r="C13" t="s">
+        <v>569</v>
+      </c>
+      <c r="D13" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>714</v>
+      </c>
+      <c r="B14">
+        <v>2004</v>
+      </c>
+      <c r="C14" t="s">
+        <v>715</v>
+      </c>
+      <c r="D14" t="s">
+        <v>716</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E15" s="2" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E18" t="s">
+        <v>733</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{6F1436BD-3894-2341-9537-8F26E15EC894}"/>
+    <hyperlink ref="D11" r:id="rId2" xr:uid="{C4C35932-13DD-B44A-84AE-082E69017B5C}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{324CA862-FC0E-DB44-8792-5B7D86E01850}"/>
+    <hyperlink ref="E15" r:id="rId4" xr:uid="{9AA7B248-CACE-914E-9C82-3382C60F8AB4}"/>
+    <hyperlink ref="E16" r:id="rId5" xr:uid="{DA598186-4ED4-C443-A9CE-04F4D2EA7BA6}"/>
+    <hyperlink ref="E17" r:id="rId6" xr:uid="{77BFF2D2-D82C-CC4B-9131-2859FCF54C44}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48BA084-0222-804A-9A57-F36904A899C1}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView zoomScale="242" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3878,19 +7672,37 @@
         <v>4</v>
       </c>
     </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>384</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>385</v>
+      </c>
+      <c r="D4" t="s">
+        <v>386</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48BA084-0222-804A-9A57-F36904A899C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/papers.xlsx
+++ b/papers.xlsx
@@ -1,26 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/congliu/Desktop/Notes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E731BC29-A4A3-A145-BDFE-A3692CAB3B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0449D2C4-252B-434F-946A-03CBCB7797DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18800" activeTab="6" xr2:uid="{63D35062-F463-5C46-BEEE-599C3F1C9BA0}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="19080" activeTab="10" xr2:uid="{63D35062-F463-5C46-BEEE-599C3F1C9BA0}"/>
   </bookViews>
   <sheets>
     <sheet name="Molecular-evolution" sheetId="1" r:id="rId1"/>
-    <sheet name="HGT" sheetId="2" r:id="rId2"/>
-    <sheet name="Metabolism" sheetId="8" r:id="rId3"/>
-    <sheet name="Transposon" sheetId="7" r:id="rId4"/>
-    <sheet name="Symbiosis" sheetId="3" r:id="rId5"/>
-    <sheet name="Genome-phylogeny" sheetId="4" r:id="rId6"/>
-    <sheet name="Methodology" sheetId="5" r:id="rId7"/>
-    <sheet name="Taxonomy-trait" sheetId="6" r:id="rId8"/>
+    <sheet name="Accelerated-evolution-region" sheetId="12" r:id="rId2"/>
+    <sheet name="Sociality" sheetId="9" r:id="rId3"/>
+    <sheet name="HGT" sheetId="2" r:id="rId4"/>
+    <sheet name="Metabolism" sheetId="8" r:id="rId5"/>
+    <sheet name="Gene-families" sheetId="11" r:id="rId6"/>
+    <sheet name="Gene-expression-regulatory" sheetId="10" r:id="rId7"/>
+    <sheet name="Transposon" sheetId="7" r:id="rId8"/>
+    <sheet name="Symbiosis" sheetId="3" r:id="rId9"/>
+    <sheet name="Genome-phylogeny" sheetId="4" r:id="rId10"/>
+    <sheet name="Methodology" sheetId="5" r:id="rId11"/>
+    <sheet name="Taxonomy-trait" sheetId="6" r:id="rId12"/>
+    <sheet name="Institutions" sheetId="13" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1345" uniqueCount="964">
   <si>
     <t>Authors</t>
   </si>
@@ -282,9 +287,6 @@
     <t>Translation of neutrally evolving peptides provides a basis for de novo gene evolution</t>
   </si>
   <si>
-    <t># Genome structures</t>
-  </si>
-  <si>
     <t>Zdobnov et al.</t>
   </si>
   <si>
@@ -2073,10 +2075,6 @@
     <t>https://github.com/arzwa/Whale.jl/blob/master/scripts/orthofilter.py</t>
   </si>
   <si>
-    <t>Use this script to filter an OrthoFinder output data frame based on several criteria. The different criteria that can be used are: (0) at least one gene in both clades: for this you have to specify one clade as a comma-separated string of taxa, and the data frame will be filtered such that there is at least one gene both in the specified clade and its complement. (1) Outlier families: this filters out large families based on a Poisson outlier criterion, i.e. exclude families where the square root of the family size exceeds 2 x median(square root of family size). (2) Outlier lineages: This filters out families where at least one of the lineages has a number of genes that exceeds the Poisson outlier criterion. To specify for instance filter 0 and 1 (recommended filters), use '0,1' as last argument
-"""</t>
-  </si>
-  <si>
     <t>A genome-wide view of the spectrum of spontaneous mutations in yeast</t>
   </si>
   <si>
@@ -2243,13 +2241,709 @@
   </si>
   <si>
     <t>Tetrimmer</t>
+  </si>
+  <si>
+    <t>Evolution letters</t>
+  </si>
+  <si>
+    <t>Experimental estimates of germline mutation rate in eukaryotes: a phylogenetic meta-analysis</t>
+  </si>
+  <si>
+    <t>Summary of mutation rates among eukaryotic lineages</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lynch et al. </t>
+  </si>
+  <si>
+    <t>EMBO reports</t>
+  </si>
+  <si>
+    <t>The divergence of mutation rates and spectra across the tree of life</t>
+  </si>
+  <si>
+    <t>https://github.com/conchoecia/odp</t>
+  </si>
+  <si>
+    <t># Gene synteny</t>
+  </si>
+  <si>
+    <t>Simakov et al.</t>
+  </si>
+  <si>
+    <t>Deeply conserved synteny and the evolution of metazoan chromosomes</t>
+  </si>
+  <si>
+    <t>Lewin et al.</t>
+  </si>
+  <si>
+    <t>Annelid Comparative Genomics and the Evolution of Massive Lineage-Specific Genome Rearrangement in Bilaterians</t>
+  </si>
+  <si>
+    <t>BioRxiv</t>
+  </si>
+  <si>
+    <t>Conservation of animal genome structure is the exception not the rule</t>
+  </si>
+  <si>
+    <t>Schultz et al.</t>
+  </si>
+  <si>
+    <t>Acceleration of genome rearrangement in clitellate annelids</t>
+  </si>
+  <si>
+    <t>Based on pre-defined ancestral linkage groups</t>
+  </si>
+  <si>
+    <t>24 ancestral linkage group of bilaterian, with a total of 2369 orthogroups (2,369 genes? Seems to be a small fraction of a genome)</t>
+  </si>
+  <si>
+    <t>Simola et al.</t>
+  </si>
+  <si>
+    <t>Social insect genomes exhibit dramatic evolution in gene composition and regulation while preserving regulatory features linked to sociality</t>
+  </si>
+  <si>
+    <t>Ants and honeybee</t>
+  </si>
+  <si>
+    <t>Van Dam et al.</t>
+  </si>
+  <si>
+    <t>The Easter Egg Weevil (Pachyrhynchus) genome reveals syntenic patterns in Coleoptera across 200 million years of evolution</t>
+  </si>
+  <si>
+    <t>For the first time, we find that synteny decays at an exponential rate relative to phylogenetic distance. Additionally, there are significant differences in decay rates between insect orders, this pattern was not driven by Lepidoptera alone which has a substantially different rate.</t>
+  </si>
+  <si>
+    <t>https://cran.r-project.org/web/packages/MDMR/vignettes/mdmr-vignette.html</t>
+  </si>
+  <si>
+    <t>Multivariate distance matrix regression</t>
+  </si>
+  <si>
+    <t># Genome size</t>
+  </si>
+  <si>
+    <t>Blommaert</t>
+  </si>
+  <si>
+    <t>Genome size evolution: towards new model systems for old questions</t>
+  </si>
+  <si>
+    <t>Fuselli et al.</t>
+  </si>
+  <si>
+    <t>Relaxation of Natural Selection in the Evolution of the Giant Lungfish Genomes</t>
+  </si>
+  <si>
+    <t>Elliott and Gregory</t>
+  </si>
+  <si>
+    <t>What's in a genome? The C-value enigma and the evolution of eukaryotic genome content</t>
+  </si>
+  <si>
+    <t>genome size and gene number are positively correlated across a broad array of eukaryotes</t>
+  </si>
+  <si>
+    <t>Hou and Lin</t>
+  </si>
+  <si>
+    <t>Distinct Gene Number-Genome Size Relationships for Eukaryotes and Non-Eukaryotes: Gene Content Estimation for Dinoflagellate Genomes</t>
+  </si>
+  <si>
+    <t>Genome Sizes and the Benford Distribution</t>
+  </si>
+  <si>
+    <t>Friar et al.</t>
+  </si>
+  <si>
+    <t>Mutation rates in mammalian genomes</t>
+  </si>
+  <si>
+    <t>Kumar et al.</t>
+  </si>
+  <si>
+    <t>A Generation Time Effect on the Rate of Molecular Evolution in Invertebrates</t>
+  </si>
+  <si>
+    <t>rates of molecular evolution are also time dependent, with the estimated rate depending on the timescale of measurement. This followed surprising observations that estimates of mutation rates, obtained in studies of pedigrees and laboratory mutation-accumulation lines, exceeded long-term substitution rates by an order of magnitude or more.</t>
+  </si>
+  <si>
+    <t>Carlisle et al.</t>
+  </si>
+  <si>
+    <t>Science Advance</t>
+  </si>
+  <si>
+    <t>Ediacaran origin and Ediacaran-Cambrian diversification of Metazoa</t>
+  </si>
+  <si>
+    <t>Origin of Metazoa: 613.2-593.4 million years ago</t>
+  </si>
+  <si>
+    <t>https://biochemical-pathways.com/</t>
+  </si>
+  <si>
+    <t>Álvarez-Carretero et al.</t>
+  </si>
+  <si>
+    <t>A species-level timeline of mammal evolution integrating phylogenomic data</t>
+  </si>
+  <si>
+    <t>Couto et al.</t>
+  </si>
+  <si>
+    <t>Evolution of the neuronal substrate for kin recognition in social Hymenoptera</t>
+  </si>
+  <si>
+    <t>Sociality evolution in Hymenoptera</t>
+  </si>
+  <si>
+    <t># Hymenoptera</t>
+  </si>
+  <si>
+    <t># Blattodea</t>
+  </si>
+  <si>
+    <t># Hemiptera</t>
+  </si>
+  <si>
+    <t>Genomic architecture in social insects is more strongly associated with phylogeny than social behavior</t>
+  </si>
+  <si>
+    <t>Behrends et al.</t>
+  </si>
+  <si>
+    <t>Social aphids: emerging model for studying insect sociality</t>
+  </si>
+  <si>
+    <t>Current Opinion in Insect Science</t>
+  </si>
+  <si>
+    <t># Others</t>
+  </si>
+  <si>
+    <t>Rehan</t>
+  </si>
+  <si>
+    <t>Genome architecture and social evolution</t>
+  </si>
+  <si>
+    <t>PNAS_commentary</t>
+  </si>
+  <si>
+    <t>Chak et al.</t>
+  </si>
+  <si>
+    <t>Eusociality in snapping shrimps is associated with larger genomes and an accumulation of transposable elements</t>
+  </si>
+  <si>
+    <t>Molecular Ecology Resources</t>
+  </si>
+  <si>
+    <t>Genomic and transcriptomic analyses of a social hemipteran provide new insights into insect sociality</t>
+  </si>
+  <si>
+    <t>Genome of social aphid Pseudoregma bambucicola</t>
+  </si>
+  <si>
+    <t># gene duplication and sociality</t>
+  </si>
+  <si>
+    <t>Gadagkar</t>
+  </si>
+  <si>
+    <t>Journal of genetics</t>
+  </si>
+  <si>
+    <t>The evolution of caste polymorphism in social insects: genetic release followed by diversifying evolution</t>
+  </si>
+  <si>
+    <t>Korb</t>
+  </si>
+  <si>
+    <t>Frontiers in ecology and evolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I hypothesize that gene duplications have been commonly co-opted during social evolution in all social insects. After a first neo- or sub-functionalization, differential selection on alternate copies may have facilitated caste specific adaptations.</t>
+  </si>
+  <si>
+    <t>Genes Underlying Reproductive Division of Labor in Termites, with Comparisons to Social Hymenoptera</t>
+  </si>
+  <si>
+    <t>Dyson et al.</t>
+  </si>
+  <si>
+    <t>Gene Duplication in the Honeybee: Patterns of DNA Methylation, Gene Expression, and Genomic Environment</t>
+  </si>
+  <si>
+    <t>Overall, our results provide further insight into genic methylation and how its association with duplicate genes might facilitate evolutionary processes and adaptation.</t>
+  </si>
+  <si>
+    <t>Molecular evolutionary analyses of insect societies</t>
+  </si>
+  <si>
+    <t>Fischman et al.</t>
+  </si>
+  <si>
+    <t>Some cases of duplication of specific genes &amp; sociality</t>
+  </si>
+  <si>
+    <t>Shigenobu et al.</t>
+  </si>
+  <si>
+    <t>Genomic and transcriptomic analyses of the subterranean termite Reticulitermes speratus: Gene duplication facilitates social evolution</t>
+  </si>
+  <si>
+    <t>Rehan &amp; Toth</t>
+  </si>
+  <si>
+    <t>Trends in ecology and evolution</t>
+  </si>
+  <si>
+    <t>Climbing the social ladder: the molecular evolution of sociality</t>
+  </si>
+  <si>
+    <t>Proposes that eusociality, a novel social phenotype, is the product of the evolution of novel protein-coding genes. ‘Novel’ genes might have arisen from gene duplication followed by the neofunctionalization of duplicates, resulting in a rapid evolution of ‘taxonomically restricted genes’ that show no discernable sequence homology to previously described sequences</t>
+  </si>
+  <si>
+    <t>Rubenstein et al.</t>
+  </si>
+  <si>
+    <t>Coevolution of Genome Architecture and Social Behavior</t>
+  </si>
+  <si>
+    <t>DeLory et al.</t>
+  </si>
+  <si>
+    <t>Recombination Rate Variation in Social Insects: An Adaptive Perspective</t>
+  </si>
+  <si>
+    <t>Morrison</t>
+  </si>
+  <si>
+    <t>How to summarize estimates of ancestral divergence times</t>
+  </si>
+  <si>
+    <t>Evolutionary Bioinformatics</t>
+  </si>
+  <si>
+    <t>as lognormal distributions may be more appropriate for evolutionary distances than normal distributions</t>
+  </si>
+  <si>
+    <t>Assessing the Performance of Ks Plots for Detecting Ancient Whole Genome Duplications</t>
+  </si>
+  <si>
+    <t>Tiley et al.</t>
+  </si>
+  <si>
+    <t>Large-Scale Annotation and Evolution Analysis of MiRNA in Insects</t>
+  </si>
+  <si>
+    <t># microRNA</t>
+  </si>
+  <si>
+    <t>Asma et al.</t>
+  </si>
+  <si>
+    <t>MDPI</t>
+  </si>
+  <si>
+    <t>Annotating the Insect Regulatory Genome</t>
+  </si>
+  <si>
+    <t>Regulatory genome annotation of 33 insect species</t>
+  </si>
+  <si>
+    <t>A cross-species SCRMshaw pipeline</t>
+  </si>
+  <si>
+    <t>https://paleobiodb.org/</t>
+  </si>
+  <si>
+    <t>Hamamsy et al.</t>
+  </si>
+  <si>
+    <t>Nature biotechnology</t>
+  </si>
+  <si>
+    <t>Protein remote homology detection and structural alignment using deep learning</t>
+  </si>
+  <si>
+    <t>Many standard sequence homology approaches are reliable for proteins that have high sequence similarity (&gt;25%).</t>
+  </si>
+  <si>
+    <t>Sanger et al.</t>
+  </si>
+  <si>
+    <t>BMC Bioinformatics</t>
+  </si>
+  <si>
+    <t>Quantitative sequence-function relationships in proteins based on gene ontology</t>
+  </si>
+  <si>
+    <t>For proteins with more than 50% residue identity, transfer of annotation between homologs will lead to an erroneous attribution with a totally dissimilar function in fewer than 6% of cases. This means that for very similar proteins (about 50 % identical residues) the chance of completely incorrect annotation is low;</t>
+  </si>
+  <si>
+    <t>Widen et al.</t>
+  </si>
+  <si>
+    <t>Virus-like transposons cross the species barrier and drive the evolution of genetic incompatibilities</t>
+  </si>
+  <si>
+    <t>Maverick transposons mediated HGTs in nematods</t>
+  </si>
+  <si>
+    <t>Urquhart et al.</t>
+  </si>
+  <si>
+    <t>Gene acquisition by giant transposons primes eukaryotes for rapid evolution via horizontal gene transfer</t>
+  </si>
+  <si>
+    <t>Fiant Starship transposons mediated HGTs in fungi</t>
+  </si>
+  <si>
+    <t># cis-regulatory element</t>
+  </si>
+  <si>
+    <t>SCRMshaw: Supervised cis-regulatory module prediction for insect genomes</t>
+  </si>
+  <si>
+    <t>Oggenfuss et al.</t>
+  </si>
+  <si>
+    <t>Plos pathogen</t>
+  </si>
+  <si>
+    <t>Recent transposable element bursts are associated with the proximity to genes in a fungal plant pathogen</t>
+  </si>
+  <si>
+    <t>Here, we analyzed a set of 19 telomere-to-telomere genomes of the fungal wheat pathogen Zymoseptoria tritici</t>
+  </si>
+  <si>
+    <t>Nygaard et al.</t>
+  </si>
+  <si>
+    <t>Reciprocal genomic evolution in the ant–fungus agricultural symbiosis</t>
+  </si>
+  <si>
+    <t>The evolution of genome size in ants</t>
+  </si>
+  <si>
+    <t>Tsutsui et al.</t>
+  </si>
+  <si>
+    <t>https://github.com/PuttickMacroevolution/MCMCtreeR/tree/master</t>
+  </si>
+  <si>
+    <t>Estimating diversification rates from phylogenetic information</t>
+  </si>
+  <si>
+    <t>Ricklefs</t>
+  </si>
+  <si>
+    <t>Cotton et al.</t>
+  </si>
+  <si>
+    <t>Rates and patterns of gene duplication and loss in the human genome</t>
+  </si>
+  <si>
+    <t>Wei et al.</t>
+  </si>
+  <si>
+    <t>On branch lengths assignment methods for trees with fixed topology and related biological applications</t>
+  </si>
+  <si>
+    <t>Different age distribution patterns of human, nematode, and Arabidopsis duplicate genes</t>
+  </si>
+  <si>
+    <t>Pan et al.</t>
+  </si>
+  <si>
+    <t>BMC genome biology</t>
+  </si>
+  <si>
+    <t>Quantifying the major mechanisms of recent gene duplications in the human and mouse genomes: a novel strategy to estimate gene duplication rates</t>
+  </si>
+  <si>
+    <t>Combining rates of duplication using the two mechanisms, we estimated the overall rates to be from approximately 0.515 to 1.49 × 1e-3 per gene per million years in human, and from approximately 1.23 to 4.23 × 1e-3 in mouse.</t>
+  </si>
+  <si>
+    <t>Current bology</t>
+  </si>
+  <si>
+    <t>Increased Mutation Rate Is Linked to Genome Reduction in Prokaryotes</t>
+  </si>
+  <si>
+    <t>Luchetti et al.</t>
+  </si>
+  <si>
+    <t>Mitochondrial evolutionary rate and speciation in termites: data on European Reticulitermes taxa (Isoptera, Rhinotermitidae)</t>
+  </si>
+  <si>
+    <t>However, the fascination with the long-term consequences and the simplicity of the complete redundancy hypothesis, which essentially created the neutral theory of gene duplications, resonated in the community at the time when the neutral theory was popular and few authors took into account the adaptive point of view.</t>
+  </si>
+  <si>
+    <t># neutralist–selectionist debate</t>
+  </si>
+  <si>
+    <t>Jong et al.</t>
+  </si>
+  <si>
+    <t>Biological reviews</t>
+  </si>
+  <si>
+    <t>Moderating the neutralist–selectionist debate: exactly which propositions are we debating, and which arguments are valid?</t>
+  </si>
+  <si>
+    <t># Recombination</t>
+  </si>
+  <si>
+    <t>Everitt et al.</t>
+  </si>
+  <si>
+    <t>Unexpectedly low recombination rates and presence of hotspots in termite genomes</t>
+  </si>
+  <si>
+    <t>Dynamic evolution of recently duplicated genes in Caenorhabditis elegans</t>
+  </si>
+  <si>
+    <t>Naciri et al.</t>
+  </si>
+  <si>
+    <t>The genetics of evolutionary radiations</t>
+  </si>
+  <si>
+    <t>We explore the potential roles of epigenetics and transposable elements (TEs), of neutral process such as genetic drift in combination with trait genetic architecture, of gene flow limitation through isolation by distance (IBD), isolation by ecology and isolation by colonization, the possible role of intra-specific competition, and that of admixture and hybridization in increasing the genetic diversity of the founding populations.</t>
+  </si>
+  <si>
+    <t>Historical biogeography of the termite clade Rhinotermitinae (Blattodea: Isoptera)</t>
+  </si>
+  <si>
+    <t>Dolichorhinotermes longilabius: from Oriental to Neotropical: ~25-42 million years ago</t>
+  </si>
+  <si>
+    <t>Mitochondrial Phylogenomics Resolves the Global Spread of Higher Termites, Ecosystem Engineers of the Tropics</t>
+  </si>
+  <si>
+    <t>Termitidae: from Africa, 10 disperses to South America and Asia 23-35 million years ago; 1 to South America and 11 to Asia and Austrialia, 1 back to Africa, 5-23 million years ago</t>
+  </si>
+  <si>
+    <t># Earth science</t>
+  </si>
+  <si>
+    <t>Judd et al.</t>
+  </si>
+  <si>
+    <t>A 485-million-year history of Earth’s surface temperature</t>
+  </si>
+  <si>
+    <t>Blumenstiel et al.</t>
+  </si>
+  <si>
+    <t>An Age-of-Allele Test of Neutrality for Transposable Element Insertions</t>
+  </si>
+  <si>
+    <t>Aigaki et al.</t>
+  </si>
+  <si>
+    <t>Longevity determination genes in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Mechanisms of Ageing and Development</t>
+  </si>
+  <si>
+    <t>Life-History Evolution and the Genetics of Fitness Components in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>Flatt</t>
+  </si>
+  <si>
+    <t>Transposable Elements Activity is Positively Related to Rate of Speciation in Mammals</t>
+  </si>
+  <si>
+    <t># Transposon and diversification</t>
+  </si>
+  <si>
+    <t>Journal of Molecular Evolution</t>
+  </si>
+  <si>
+    <t>Ricci et al.</t>
+  </si>
+  <si>
+    <t>Dowling et al.</t>
+  </si>
+  <si>
+    <t>Phylogenetic Origin and Diversification of RNAi Pathway Genes in Insects</t>
+  </si>
+  <si>
+    <t>Pabby et al.</t>
+  </si>
+  <si>
+    <t>Fly</t>
+  </si>
+  <si>
+    <t>Mota et al.</t>
+  </si>
+  <si>
+    <t>DNA damage response and repair in perspective: Aedes aegypti, Drosophila melanogaster and Homo sapiens</t>
+  </si>
+  <si>
+    <t>BMC</t>
+  </si>
+  <si>
+    <t># longevity</t>
+  </si>
+  <si>
+    <t># RNAi</t>
+  </si>
+  <si>
+    <t># DNA repair</t>
+  </si>
+  <si>
+    <t>Bonning et al.</t>
+  </si>
+  <si>
+    <t>The Interplay Between Viruses and RNAi Pathways in Insects</t>
+  </si>
+  <si>
+    <t>Dissecting the genetics of longevity in Drosophila melanogaster</t>
+  </si>
+  <si>
+    <t>https://genomics.senescence.info/genes/models.html</t>
+  </si>
+  <si>
+    <t>database of longevity genes in human, mouse, fruit fly and baker's yeast</t>
+  </si>
+  <si>
+    <t>Barteri et al.</t>
+  </si>
+  <si>
+    <t>中国科学院动物研究所</t>
+  </si>
+  <si>
+    <t>Use this script to filter an OrthoFinder output data frame based on several criteria. The different criteria that can be used are: (0) at least one gene in both clades: for this you have to specify one clade as a comma-separated string of taxa, and the data frame will be filtered such that there is at least one gene both in the specified clade and its complement. (1) Outlier families: this filters out large families based on a Poisson outlier criterion, i.e. exclude families where the square root of the family size exceeds 2 x median(square root of family size). (2) Outlier lineages: This filters out families where at least one of the lineages has a number of genes that exceeds the Poisson outlier criterion. To specify for instance filter 0 and 1 (recommended filters), use '0,1' as last argument</t>
+  </si>
+  <si>
+    <t>Mackintosh et al.</t>
+  </si>
+  <si>
+    <t>syngraph</t>
+  </si>
+  <si>
+    <t>Inferring inter-chromosomal rearrangements and ancestral linkage groups from synteny</t>
+  </si>
+  <si>
+    <t># Accelerated evolution region</t>
+  </si>
+  <si>
+    <t>Levchenko et al.</t>
+  </si>
+  <si>
+    <t>GBE</t>
+  </si>
+  <si>
+    <t>Human accelerated regions and other human-specific sequence variation in the context of evolution and their relevance for brain development</t>
+  </si>
+  <si>
+    <t>Holloway et al.</t>
+  </si>
+  <si>
+    <t>MBE</t>
+  </si>
+  <si>
+    <t>Accelerated evolution of enhancer hotspots in the mammal ancestor</t>
+  </si>
+  <si>
+    <t>Tollis et al.</t>
+  </si>
+  <si>
+    <t>Elephant genomes reveal accelerated evolution in mechanisms underlying disease defenses</t>
+  </si>
+  <si>
+    <t>Hu et al.</t>
+  </si>
+  <si>
+    <t>Deciphering the role of rapidly evolving conserved elements in primate brain development and exploring their potential involvement in Alzheimer's disease</t>
+  </si>
+  <si>
+    <t>Ferris et al.</t>
+  </si>
+  <si>
+    <t>Cell reports</t>
+  </si>
+  <si>
+    <t>Accelerated evolution in distinctive species reveals candidate elements for clinically relevant traits, including mutation and cancer resistance</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>Dong et al.</t>
+  </si>
+  <si>
+    <t>Genome-wide identification of regulatory sequences undergoing accelerated evolution in the human genome</t>
+  </si>
+  <si>
+    <t>Zhuang et al.</t>
+  </si>
+  <si>
+    <t>Integrative omics reveals rapidly evolving regulatory sequences driving primate brain evolution</t>
+  </si>
+  <si>
+    <t>Capra et al.</t>
+  </si>
+  <si>
+    <t>Philosophical transactions of the royal society B</t>
+  </si>
+  <si>
+    <t>Many human accelerated regions are developmental enhancers</t>
+  </si>
+  <si>
+    <t>Sakamoto et al.</t>
+  </si>
+  <si>
+    <t>Ecology and Evolution</t>
+  </si>
+  <si>
+    <t>Detection of evolutionary conserved and accelerated genomic regions related to adaptation to thermal niches in Anolis lizards</t>
+  </si>
+  <si>
+    <t>Cahill et al.</t>
+  </si>
+  <si>
+    <t>Positive selection in noncoding genomic regions of vocal learning birds is associated with genes implicated in vocal learning and speech functions in humans</t>
+  </si>
+  <si>
+    <t>Kapheim et al.</t>
+  </si>
+  <si>
+    <t>Genomic signatures of evolutionary transitions from solitary to group living</t>
+  </si>
+  <si>
+    <t>Shell et al.</t>
+  </si>
+  <si>
+    <t>Communications biology</t>
+  </si>
+  <si>
+    <t>Sociality sculpts similar patterns of molecular evolution in two independently evolved lineages of eusocial bees</t>
+  </si>
+  <si>
+    <t>Nagao et al.</t>
+  </si>
+  <si>
+    <t>Genome organization: raison d'etre ancestral linkage groups</t>
+  </si>
+  <si>
+    <t>https://github.com/alekseyzimin/EviAnn_release</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2410,8 +3104,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2591,6 +3292,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -2753,7 +3460,7 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2762,6 +3469,11 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -3138,10 +3850,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58AAD981-FCA9-9947-BD19-60D757D7449B}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E142"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" zoomScale="200" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView topLeftCell="A131" zoomScale="200" workbookViewId="0">
+      <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3164,7 +3876,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
     </row>
@@ -3274,21 +3986,21 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10">
         <v>2024</v>
       </c>
       <c r="C10" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B11">
         <v>2006</v>
@@ -3297,7 +4009,7 @@
         <v>75</v>
       </c>
       <c r="D11" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3394,77 +4106,65 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B20">
         <v>2024</v>
       </c>
       <c r="C20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D20" t="s">
-        <v>559</v>
+        <v>558</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>883</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24">
-        <v>2022</v>
-      </c>
-      <c r="D24" t="s">
-        <v>50</v>
-      </c>
-      <c r="E24" t="s">
-        <v>51</v>
+        <v>884</v>
+      </c>
+      <c r="B23">
+        <v>2024</v>
+      </c>
+      <c r="C23" t="s">
+        <v>268</v>
+      </c>
+      <c r="D23" t="s">
+        <v>885</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25">
-        <v>2013</v>
-      </c>
-      <c r="C25" t="s">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B26">
-        <v>2024</v>
-      </c>
-      <c r="C26" t="s">
-        <v>55</v>
+        <v>2022</v>
       </c>
       <c r="D26" t="s">
-        <v>47</v>
+        <v>50</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>876</v>
       </c>
       <c r="B27">
-        <v>2011</v>
-      </c>
-      <c r="C27" t="s">
-        <v>57</v>
+        <v>2005</v>
       </c>
       <c r="D27" t="s">
-        <v>58</v>
+        <v>877</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -3483,1082 +4183,1520 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="B29">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>555</v>
+        <v>56</v>
+      </c>
+      <c r="B30">
+        <v>2011</v>
+      </c>
+      <c r="C30" t="s">
+        <v>57</v>
       </c>
       <c r="D30" t="s">
-        <v>556</v>
-      </c>
-      <c r="E30" t="s">
-        <v>557</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>603</v>
+        <v>52</v>
       </c>
       <c r="B31">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="C31" t="s">
-        <v>211</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>604</v>
-      </c>
-      <c r="E31" t="s">
-        <v>705</v>
+        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>645</v>
+        <v>59</v>
       </c>
       <c r="B32">
-        <v>2024</v>
+        <v>2010</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="D32" t="s">
-        <v>646</v>
+        <v>61</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>645</v>
-      </c>
-      <c r="B33">
-        <v>2023</v>
-      </c>
-      <c r="C33" t="s">
-        <v>647</v>
+        <v>554</v>
       </c>
       <c r="D33" t="s">
-        <v>648</v>
+        <v>555</v>
+      </c>
+      <c r="E33" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>651</v>
+        <v>602</v>
       </c>
       <c r="B34">
-        <v>2006</v>
+        <v>2023</v>
       </c>
       <c r="C34" t="s">
-        <v>133</v>
+        <v>210</v>
       </c>
       <c r="D34" t="s">
-        <v>652</v>
+        <v>603</v>
       </c>
       <c r="E34" t="s">
-        <v>653</v>
+        <v>703</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>701</v>
+        <v>644</v>
       </c>
       <c r="B35">
-        <v>2016</v>
+        <v>2024</v>
       </c>
       <c r="C35" t="s">
-        <v>702</v>
+        <v>67</v>
       </c>
       <c r="D35" t="s">
-        <v>703</v>
-      </c>
-      <c r="E35" t="s">
-        <v>704</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>644</v>
+      </c>
+      <c r="B36">
+        <v>2023</v>
+      </c>
+      <c r="C36" t="s">
+        <v>646</v>
+      </c>
+      <c r="D36" t="s">
+        <v>647</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>650</v>
+      </c>
+      <c r="B37">
+        <v>2006</v>
+      </c>
+      <c r="C37" t="s">
+        <v>132</v>
+      </c>
+      <c r="D37" t="s">
+        <v>651</v>
+      </c>
+      <c r="E37" t="s">
+        <v>652</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>699</v>
       </c>
       <c r="B38">
-        <v>2021</v>
+        <v>2016</v>
       </c>
       <c r="C38" t="s">
-        <v>64</v>
+        <v>700</v>
       </c>
       <c r="D38" t="s">
-        <v>65</v>
+        <v>701</v>
+      </c>
+      <c r="E38" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>66</v>
+        <v>624</v>
       </c>
       <c r="B39">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C39" t="s">
-        <v>67</v>
+        <v>732</v>
       </c>
       <c r="D39" t="s">
-        <v>68</v>
+        <v>733</v>
       </c>
       <c r="E39" t="s">
-        <v>69</v>
+        <v>734</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>70</v>
+        <v>735</v>
       </c>
       <c r="B40">
         <v>2023</v>
       </c>
       <c r="C40" t="s">
-        <v>71</v>
+        <v>736</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>737</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>571</v>
+        <v>771</v>
       </c>
       <c r="B41">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>23</v>
       </c>
       <c r="D41" t="s">
-        <v>572</v>
+        <v>770</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>573</v>
+        <v>271</v>
       </c>
       <c r="B42">
-        <v>2022</v>
+        <v>2010</v>
       </c>
       <c r="C42" t="s">
-        <v>345</v>
+        <v>75</v>
       </c>
       <c r="D42" t="s">
-        <v>574</v>
-      </c>
-      <c r="E42" t="s">
-        <v>575</v>
+        <v>772</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>576</v>
+        <v>56</v>
       </c>
       <c r="B43">
-        <v>2024</v>
+        <v>2011</v>
       </c>
       <c r="C43" t="s">
-        <v>392</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>578</v>
-      </c>
-      <c r="B44">
-        <v>2003</v>
-      </c>
-      <c r="C44" t="s">
-        <v>491</v>
-      </c>
-      <c r="D44" t="s">
-        <v>579</v>
+        <v>58</v>
+      </c>
+      <c r="E43" t="s">
+        <v>773</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>584</v>
-      </c>
-      <c r="B45">
-        <v>2022</v>
-      </c>
-      <c r="C45" t="s">
-        <v>354</v>
-      </c>
-      <c r="D45" t="s">
-        <v>585</v>
-      </c>
-      <c r="E45" t="s">
-        <v>586</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>587</v>
+        <v>63</v>
       </c>
       <c r="B46">
-        <v>2004</v>
+        <v>2021</v>
       </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="D46" t="s">
-        <v>588</v>
-      </c>
-      <c r="E46" t="s">
-        <v>600</v>
+        <v>65</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>589</v>
+        <v>66</v>
       </c>
       <c r="B47">
-        <v>2000</v>
+        <v>2024</v>
       </c>
       <c r="C47" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>590</v>
+        <v>68</v>
       </c>
       <c r="E47" t="s">
-        <v>724</v>
+        <v>69</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>591</v>
+        <v>70</v>
       </c>
       <c r="B48">
-        <v>2020</v>
+        <v>2023</v>
       </c>
       <c r="C48" t="s">
-        <v>521</v>
+        <v>71</v>
       </c>
       <c r="D48" t="s">
-        <v>592</v>
+        <v>72</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>593</v>
+        <v>570</v>
       </c>
       <c r="B49">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C49" t="s">
-        <v>594</v>
+        <v>55</v>
       </c>
       <c r="D49" t="s">
-        <v>595</v>
+        <v>571</v>
+      </c>
+      <c r="E49" t="s">
+        <v>878</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>83</v>
+        <v>572</v>
       </c>
       <c r="B50">
-        <v>2016</v>
+        <v>2022</v>
       </c>
       <c r="C50" t="s">
-        <v>596</v>
+        <v>344</v>
       </c>
       <c r="D50" t="s">
-        <v>597</v>
+        <v>573</v>
+      </c>
+      <c r="E50" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
       <c r="B51">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C51" t="s">
-        <v>60</v>
+        <v>391</v>
       </c>
       <c r="D51" t="s">
-        <v>599</v>
+        <v>576</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="B52">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="C52" t="s">
-        <v>211</v>
+        <v>490</v>
       </c>
       <c r="D52" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>605</v>
+        <v>583</v>
       </c>
       <c r="B53">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="C53" t="s">
-        <v>606</v>
+        <v>353</v>
       </c>
       <c r="D53" t="s">
-        <v>607</v>
+        <v>584</v>
+      </c>
+      <c r="E53" t="s">
+        <v>585</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>83</v>
+        <v>586</v>
       </c>
       <c r="B54">
-        <v>2022</v>
+        <v>2004</v>
       </c>
       <c r="C54" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="D54" t="s">
-        <v>608</v>
+        <v>587</v>
+      </c>
+      <c r="E54" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>659</v>
+        <v>588</v>
       </c>
       <c r="B55">
-        <v>2012</v>
+        <v>2000</v>
       </c>
       <c r="C55" t="s">
-        <v>660</v>
+        <v>85</v>
       </c>
       <c r="D55" t="s">
-        <v>661</v>
+        <v>589</v>
+      </c>
+      <c r="E55" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>662</v>
+        <v>590</v>
       </c>
       <c r="B56">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C56" t="s">
-        <v>663</v>
+        <v>520</v>
       </c>
       <c r="D56" t="s">
-        <v>664</v>
-      </c>
-      <c r="E56" t="s">
-        <v>665</v>
+        <v>591</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
       <c r="B57">
-        <v>2008</v>
+        <v>2022</v>
       </c>
       <c r="C57" t="s">
-        <v>23</v>
+        <v>593</v>
       </c>
       <c r="D57" t="s">
-        <v>678</v>
-      </c>
-      <c r="E57" t="s">
-        <v>679</v>
+        <v>594</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>680</v>
+        <v>82</v>
       </c>
       <c r="B58">
-        <v>2011</v>
+        <v>2016</v>
       </c>
       <c r="C58" t="s">
-        <v>535</v>
+        <v>595</v>
       </c>
       <c r="D58" t="s">
-        <v>681</v>
-      </c>
-      <c r="E58" t="s">
-        <v>682</v>
+        <v>596</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>683</v>
+        <v>597</v>
       </c>
       <c r="B59">
-        <v>2013</v>
+        <v>2021</v>
       </c>
       <c r="C59" t="s">
-        <v>496</v>
+        <v>60</v>
       </c>
       <c r="D59" t="s">
-        <v>684</v>
-      </c>
-      <c r="E59" t="s">
-        <v>685</v>
+        <v>598</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>686</v>
+        <v>600</v>
       </c>
       <c r="B60">
-        <v>2022</v>
+        <v>2005</v>
       </c>
       <c r="C60" t="s">
-        <v>64</v>
+        <v>210</v>
       </c>
       <c r="D60" t="s">
-        <v>687</v>
-      </c>
-      <c r="E60" t="s">
-        <v>688</v>
+        <v>601</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>580</v>
+        <v>604</v>
       </c>
       <c r="B61">
-        <v>2017</v>
+        <v>2024</v>
       </c>
       <c r="C61" t="s">
-        <v>581</v>
+        <v>605</v>
       </c>
       <c r="D61" t="s">
-        <v>582</v>
-      </c>
-      <c r="E61" t="s">
-        <v>583</v>
+        <v>606</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B62">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C62" t="s">
         <v>23</v>
       </c>
       <c r="D62" t="s">
-        <v>689</v>
-      </c>
-      <c r="E62" t="s">
-        <v>690</v>
+        <v>607</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>691</v>
+        <v>658</v>
       </c>
       <c r="B63">
-        <v>2002</v>
+        <v>2012</v>
       </c>
       <c r="C63" t="s">
-        <v>75</v>
+        <v>659</v>
       </c>
       <c r="D63" t="s">
-        <v>692</v>
-      </c>
-      <c r="E63" t="s">
-        <v>693</v>
+        <v>660</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>694</v>
+        <v>661</v>
       </c>
       <c r="B64">
-        <v>2008</v>
+        <v>2016</v>
       </c>
       <c r="C64" t="s">
-        <v>695</v>
+        <v>662</v>
       </c>
       <c r="D64" t="s">
-        <v>696</v>
+        <v>663</v>
       </c>
       <c r="E64" t="s">
-        <v>697</v>
+        <v>664</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>719</v>
+        <v>588</v>
       </c>
       <c r="B65">
-        <v>2023</v>
+        <v>2008</v>
       </c>
       <c r="C65" t="s">
-        <v>720</v>
+        <v>23</v>
       </c>
       <c r="D65" t="s">
-        <v>721</v>
+        <v>676</v>
       </c>
       <c r="E65" t="s">
-        <v>722</v>
+        <v>677</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>728</v>
+        <v>43</v>
       </c>
       <c r="B66">
-        <v>2019</v>
+        <v>2022</v>
       </c>
       <c r="C66" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="D66" t="s">
-        <v>729</v>
+        <v>886</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>598</v>
+        <v>678</v>
       </c>
       <c r="B67">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C67" t="s">
-        <v>60</v>
+        <v>534</v>
       </c>
       <c r="D67" t="s">
-        <v>599</v>
+        <v>679</v>
+      </c>
+      <c r="E67" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>730</v>
+        <v>681</v>
       </c>
       <c r="B68">
-        <v>2020</v>
+        <v>2013</v>
       </c>
       <c r="C68" t="s">
-        <v>78</v>
+        <v>495</v>
       </c>
       <c r="D68" t="s">
-        <v>731</v>
+        <v>682</v>
       </c>
       <c r="E68" t="s">
-        <v>732</v>
+        <v>683</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>73</v>
+        <v>684</v>
+      </c>
+      <c r="B69">
+        <v>2022</v>
+      </c>
+      <c r="C69" t="s">
+        <v>64</v>
+      </c>
+      <c r="D69" t="s">
+        <v>685</v>
+      </c>
+      <c r="E69" t="s">
+        <v>686</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>74</v>
+        <v>579</v>
       </c>
       <c r="B70">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C70" t="s">
-        <v>75</v>
+        <v>580</v>
       </c>
       <c r="D70" t="s">
-        <v>76</v>
+        <v>581</v>
+      </c>
+      <c r="E70" t="s">
+        <v>582</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B71">
         <v>2018</v>
       </c>
       <c r="C71" t="s">
-        <v>78</v>
+        <v>23</v>
       </c>
       <c r="D71" t="s">
-        <v>79</v>
+        <v>687</v>
+      </c>
+      <c r="E71" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>259</v>
+        <v>689</v>
       </c>
       <c r="B72">
-        <v>2019</v>
+        <v>2002</v>
       </c>
       <c r="C72" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D72" t="s">
-        <v>551</v>
+        <v>690</v>
       </c>
       <c r="E72" t="s">
-        <v>552</v>
+        <v>691</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>553</v>
+        <v>258</v>
       </c>
       <c r="B73">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C73" t="s">
-        <v>60</v>
+        <v>132</v>
       </c>
       <c r="D73" t="s">
-        <v>554</v>
+        <v>869</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>565</v>
+        <v>870</v>
       </c>
       <c r="B74">
-        <v>2023</v>
+        <v>2007</v>
       </c>
       <c r="C74" t="s">
-        <v>75</v>
+        <v>871</v>
       </c>
       <c r="D74" t="s">
-        <v>566</v>
+        <v>872</v>
+      </c>
+      <c r="E74" t="s">
+        <v>873</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>567</v>
+        <v>865</v>
       </c>
       <c r="B75">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C75" t="s">
-        <v>569</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
-        <v>568</v>
-      </c>
-      <c r="E75" t="s">
-        <v>570</v>
+        <v>866</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>649</v>
+        <v>692</v>
       </c>
       <c r="B76">
+        <v>2008</v>
+      </c>
+      <c r="C76" t="s">
+        <v>693</v>
+      </c>
+      <c r="D76" t="s">
+        <v>694</v>
+      </c>
+      <c r="E76" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>717</v>
+      </c>
+      <c r="B77">
         <v>2023</v>
       </c>
-      <c r="C76" t="s">
-        <v>491</v>
-      </c>
-      <c r="D76" t="s">
-        <v>650</v>
+      <c r="C77" t="s">
+        <v>718</v>
+      </c>
+      <c r="D77" t="s">
+        <v>719</v>
+      </c>
+      <c r="E77" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>726</v>
+      </c>
+      <c r="B78">
+        <v>2019</v>
+      </c>
+      <c r="C78" t="s">
+        <v>75</v>
+      </c>
+      <c r="D78" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>80</v>
+        <v>597</v>
+      </c>
+      <c r="B79">
+        <v>2022</v>
+      </c>
+      <c r="C79" t="s">
+        <v>60</v>
+      </c>
+      <c r="D79" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>81</v>
+        <v>728</v>
       </c>
       <c r="B80">
-        <v>2007</v>
+        <v>2020</v>
       </c>
       <c r="C80" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
       <c r="D80" t="s">
-        <v>82</v>
+        <v>729</v>
+      </c>
+      <c r="E80" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>750</v>
+      </c>
+      <c r="B81">
+        <v>2013</v>
+      </c>
+      <c r="C81" t="s">
+        <v>490</v>
+      </c>
+      <c r="D81" t="s">
+        <v>751</v>
+      </c>
+      <c r="E81" t="s">
+        <v>752</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>612</v>
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>609</v>
+        <v>74</v>
       </c>
       <c r="B84">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C84" t="s">
-        <v>302</v>
+        <v>75</v>
       </c>
       <c r="D84" t="s">
-        <v>610</v>
-      </c>
-      <c r="E84" t="s">
-        <v>611</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>587</v>
+        <v>77</v>
       </c>
       <c r="B85">
-        <v>2004</v>
+        <v>2018</v>
       </c>
       <c r="C85" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D85" t="s">
-        <v>588</v>
-      </c>
-      <c r="E85" t="s">
-        <v>600</v>
+        <v>79</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>613</v>
+        <v>258</v>
       </c>
       <c r="B86">
-        <v>2009</v>
+        <v>2019</v>
       </c>
       <c r="C86" t="s">
-        <v>496</v>
+        <v>78</v>
       </c>
       <c r="D86" t="s">
-        <v>614</v>
+        <v>550</v>
       </c>
       <c r="E86" t="s">
-        <v>618</v>
+        <v>551</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>615</v>
+        <v>552</v>
       </c>
       <c r="B87">
-        <v>2010</v>
+        <v>2015</v>
       </c>
       <c r="C87" t="s">
-        <v>496</v>
+        <v>60</v>
       </c>
       <c r="D87" t="s">
-        <v>616</v>
-      </c>
-      <c r="E87" t="s">
-        <v>617</v>
+        <v>553</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>619</v>
+        <v>564</v>
       </c>
       <c r="B88">
-        <v>2002</v>
+        <v>2023</v>
       </c>
       <c r="C88" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>620</v>
-      </c>
-      <c r="E88" t="s">
-        <v>621</v>
+        <v>565</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>622</v>
+        <v>566</v>
       </c>
       <c r="B89">
-        <v>1999</v>
+        <v>2016</v>
       </c>
       <c r="C89" t="s">
-        <v>64</v>
+        <v>568</v>
       </c>
       <c r="D89" t="s">
-        <v>623</v>
+        <v>567</v>
       </c>
       <c r="E89" t="s">
-        <v>624</v>
+        <v>569</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>625</v>
+        <v>648</v>
       </c>
       <c r="B90">
-        <v>2007</v>
+        <v>2023</v>
       </c>
       <c r="C90" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D90" t="s">
-        <v>626</v>
-      </c>
-      <c r="E90" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>630</v>
-      </c>
-      <c r="B91">
-        <v>2005</v>
-      </c>
-      <c r="D91" t="s">
-        <v>629</v>
-      </c>
-      <c r="E91" t="s">
-        <v>628</v>
+        <v>649</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>631</v>
-      </c>
-      <c r="B92">
-        <v>2006</v>
-      </c>
-      <c r="C92" t="s">
-        <v>75</v>
-      </c>
-      <c r="D92" t="s">
-        <v>632</v>
-      </c>
-      <c r="E92" t="s">
-        <v>633</v>
+        <v>758</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>634</v>
+        <v>759</v>
       </c>
       <c r="B93">
-        <v>1999</v>
+        <v>2020</v>
       </c>
       <c r="C93" t="s">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="D93" t="s">
-        <v>641</v>
-      </c>
-      <c r="E93" t="s">
-        <v>635</v>
+        <v>760</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>636</v>
+        <v>761</v>
       </c>
       <c r="B94">
-        <v>2005</v>
+        <v>2023</v>
       </c>
       <c r="C94" t="s">
-        <v>637</v>
+        <v>75</v>
       </c>
       <c r="D94" t="s">
-        <v>638</v>
+        <v>762</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>625</v>
+        <v>763</v>
       </c>
       <c r="B95">
-        <v>2002</v>
+        <v>2015</v>
       </c>
       <c r="C95" t="s">
-        <v>642</v>
+        <v>504</v>
       </c>
       <c r="D95" t="s">
-        <v>644</v>
+        <v>764</v>
       </c>
       <c r="E95" t="s">
-        <v>643</v>
+        <v>765</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>766</v>
+      </c>
+      <c r="B96">
+        <v>2009</v>
+      </c>
+      <c r="C96" t="s">
+        <v>99</v>
+      </c>
+      <c r="D96" t="s">
+        <v>767</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>769</v>
+      </c>
+      <c r="B97">
+        <v>2012</v>
+      </c>
+      <c r="C97" t="s">
+        <v>99</v>
+      </c>
+      <c r="D97" t="s">
+        <v>768</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>422</v>
+        <v>861</v>
       </c>
       <c r="B98">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C98" t="s">
-        <v>423</v>
+        <v>520</v>
       </c>
       <c r="D98" t="s">
-        <v>424</v>
-      </c>
-      <c r="E98" t="s">
-        <v>425</v>
+        <v>860</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>478</v>
+        <v>180</v>
       </c>
       <c r="B99">
-        <v>2015</v>
+        <v>2020</v>
       </c>
       <c r="C99" t="s">
-        <v>466</v>
+        <v>874</v>
       </c>
       <c r="D99" t="s">
-        <v>479</v>
-      </c>
-      <c r="E99" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>507</v>
-      </c>
-      <c r="B100">
-        <v>2023</v>
-      </c>
-      <c r="C100" t="s">
-        <v>345</v>
-      </c>
-      <c r="D100" t="s">
-        <v>508</v>
-      </c>
-      <c r="E100" t="s">
-        <v>509</v>
+        <v>875</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>237</v>
-      </c>
-      <c r="B101">
-        <v>2016</v>
-      </c>
-      <c r="C101" t="s">
-        <v>23</v>
-      </c>
-      <c r="D101" t="s">
-        <v>238</v>
-      </c>
-      <c r="E101" t="s">
-        <v>546</v>
+        <v>739</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>259</v>
+        <v>80</v>
       </c>
       <c r="B102">
-        <v>2020</v>
+        <v>2007</v>
       </c>
       <c r="C102" t="s">
-        <v>200</v>
+        <v>60</v>
       </c>
       <c r="D102" t="s">
-        <v>545</v>
-      </c>
-      <c r="E102" t="s">
-        <v>547</v>
+        <v>81</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>272</v>
+        <v>740</v>
       </c>
       <c r="B103">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="C103" t="s">
-        <v>273</v>
+        <v>85</v>
       </c>
       <c r="D103" t="s">
-        <v>274</v>
+        <v>741</v>
       </c>
       <c r="E103" t="s">
-        <v>548</v>
+        <v>749</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>562</v>
+        <v>742</v>
       </c>
       <c r="B104">
-        <v>2012</v>
+        <v>2024</v>
       </c>
       <c r="C104" t="s">
-        <v>211</v>
+        <v>75</v>
       </c>
       <c r="D104" t="s">
-        <v>560</v>
+        <v>743</v>
       </c>
       <c r="E104" t="s">
-        <v>561</v>
+        <v>748</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>609</v>
+        <v>742</v>
       </c>
       <c r="B105">
-        <v>2009</v>
+        <v>2024</v>
       </c>
       <c r="C105" t="s">
-        <v>302</v>
+        <v>744</v>
       </c>
       <c r="D105" t="s">
-        <v>610</v>
+        <v>745</v>
       </c>
       <c r="E105" t="s">
-        <v>611</v>
+        <v>748</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
+        <v>746</v>
+      </c>
+      <c r="B106">
+        <v>2024</v>
+      </c>
+      <c r="C106" t="s">
+        <v>744</v>
+      </c>
+      <c r="D106" t="s">
+        <v>747</v>
+      </c>
+      <c r="E106" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>753</v>
+      </c>
+      <c r="B107">
+        <v>2021</v>
+      </c>
+      <c r="C107" t="s">
+        <v>693</v>
+      </c>
+      <c r="D107" t="s">
+        <v>754</v>
+      </c>
+      <c r="E107" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>608</v>
+      </c>
+      <c r="B110">
+        <v>2009</v>
+      </c>
+      <c r="C110" t="s">
+        <v>301</v>
+      </c>
+      <c r="D110" t="s">
+        <v>609</v>
+      </c>
+      <c r="E110" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>586</v>
+      </c>
+      <c r="B111">
+        <v>2004</v>
+      </c>
+      <c r="C111" t="s">
+        <v>85</v>
+      </c>
+      <c r="D111" t="s">
+        <v>587</v>
+      </c>
+      <c r="E111" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>612</v>
+      </c>
+      <c r="B112">
+        <v>2009</v>
+      </c>
+      <c r="C112" t="s">
+        <v>495</v>
+      </c>
+      <c r="D112" t="s">
+        <v>613</v>
+      </c>
+      <c r="E112" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>614</v>
+      </c>
+      <c r="B113">
+        <v>2010</v>
+      </c>
+      <c r="C113" t="s">
+        <v>495</v>
+      </c>
+      <c r="D113" t="s">
+        <v>615</v>
+      </c>
+      <c r="E113" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>618</v>
+      </c>
+      <c r="B114">
+        <v>2002</v>
+      </c>
+      <c r="C114" t="s">
+        <v>64</v>
+      </c>
+      <c r="D114" t="s">
+        <v>619</v>
+      </c>
+      <c r="E114" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>621</v>
+      </c>
+      <c r="B115">
+        <v>1999</v>
+      </c>
+      <c r="C115" t="s">
+        <v>64</v>
+      </c>
+      <c r="D115" t="s">
+        <v>622</v>
+      </c>
+      <c r="E115" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>624</v>
+      </c>
+      <c r="B116">
+        <v>2007</v>
+      </c>
+      <c r="C116" t="s">
+        <v>495</v>
+      </c>
+      <c r="D116" t="s">
+        <v>625</v>
+      </c>
+      <c r="E116" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>629</v>
+      </c>
+      <c r="B117">
+        <v>2005</v>
+      </c>
+      <c r="D117" t="s">
+        <v>628</v>
+      </c>
+      <c r="E117" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>630</v>
+      </c>
+      <c r="B118">
+        <v>2006</v>
+      </c>
+      <c r="C118" t="s">
+        <v>75</v>
+      </c>
+      <c r="D118" t="s">
+        <v>631</v>
+      </c>
+      <c r="E118" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>633</v>
+      </c>
+      <c r="B119">
+        <v>1999</v>
+      </c>
+      <c r="C119" t="s">
+        <v>495</v>
+      </c>
+      <c r="D119" t="s">
+        <v>640</v>
+      </c>
+      <c r="E119" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>635</v>
+      </c>
+      <c r="B120">
+        <v>2005</v>
+      </c>
+      <c r="C120" t="s">
+        <v>636</v>
+      </c>
+      <c r="D120" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>624</v>
+      </c>
+      <c r="B121">
+        <v>2002</v>
+      </c>
+      <c r="C121" t="s">
+        <v>641</v>
+      </c>
+      <c r="D121" t="s">
+        <v>643</v>
+      </c>
+      <c r="E121" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>421</v>
+      </c>
+      <c r="B127">
+        <v>2015</v>
+      </c>
+      <c r="C127" t="s">
+        <v>422</v>
+      </c>
+      <c r="D127" t="s">
+        <v>423</v>
+      </c>
+      <c r="E127" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>477</v>
+      </c>
+      <c r="B128">
+        <v>2015</v>
+      </c>
+      <c r="C128" t="s">
+        <v>465</v>
+      </c>
+      <c r="D128" t="s">
+        <v>478</v>
+      </c>
+      <c r="E128" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>774</v>
+      </c>
+      <c r="B129">
+        <v>2024</v>
+      </c>
+      <c r="C129" t="s">
+        <v>775</v>
+      </c>
+      <c r="D129" t="s">
+        <v>776</v>
+      </c>
+      <c r="E129" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>506</v>
+      </c>
+      <c r="B130">
+        <v>2023</v>
+      </c>
+      <c r="C130" t="s">
+        <v>344</v>
+      </c>
+      <c r="D130" t="s">
+        <v>507</v>
+      </c>
+      <c r="E130" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>236</v>
+      </c>
+      <c r="B131">
+        <v>2016</v>
+      </c>
+      <c r="C131" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" t="s">
+        <v>237</v>
+      </c>
+      <c r="E131" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>258</v>
+      </c>
+      <c r="B132">
+        <v>2020</v>
+      </c>
+      <c r="C132" t="s">
+        <v>199</v>
+      </c>
+      <c r="D132" t="s">
+        <v>544</v>
+      </c>
+      <c r="E132" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>271</v>
+      </c>
+      <c r="B133">
+        <v>2020</v>
+      </c>
+      <c r="C133" t="s">
+        <v>272</v>
+      </c>
+      <c r="D133" t="s">
+        <v>273</v>
+      </c>
+      <c r="E133" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>561</v>
+      </c>
+      <c r="B134">
+        <v>2012</v>
+      </c>
+      <c r="C134" t="s">
+        <v>210</v>
+      </c>
+      <c r="D134" t="s">
+        <v>559</v>
+      </c>
+      <c r="E134" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>608</v>
+      </c>
+      <c r="B135">
+        <v>2009</v>
+      </c>
+      <c r="C135" t="s">
+        <v>301</v>
+      </c>
+      <c r="D135" t="s">
+        <v>609</v>
+      </c>
+      <c r="E135" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>696</v>
+      </c>
+      <c r="B136">
+        <v>2020</v>
+      </c>
+      <c r="C136" t="s">
+        <v>487</v>
+      </c>
+      <c r="D136" t="s">
+        <v>697</v>
+      </c>
+      <c r="E136" t="s">
         <v>698</v>
       </c>
-      <c r="B106">
-        <v>2020</v>
-      </c>
-      <c r="C106" t="s">
-        <v>488</v>
-      </c>
-      <c r="D106" t="s">
-        <v>699</v>
-      </c>
-      <c r="E106" t="s">
-        <v>700</v>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>880</v>
+      </c>
+      <c r="B140">
+        <v>2023</v>
+      </c>
+      <c r="C140" t="s">
+        <v>881</v>
+      </c>
+      <c r="D140" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>961</v>
+      </c>
+      <c r="B142">
+        <v>2025</v>
+      </c>
+      <c r="C142" t="s">
+        <v>534</v>
+      </c>
+      <c r="D142" t="s">
+        <v>962</v>
       </c>
     </row>
   </sheetData>
@@ -4566,12 +5704,1490 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F443CB-6CF7-B749-AE57-0ED5E546B9BC}">
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="259" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>250</v>
+      </c>
+      <c r="B3">
+        <v>2023</v>
+      </c>
+      <c r="C3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="B4">
+        <v>2023</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D4" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>255</v>
+      </c>
+      <c r="B5">
+        <v>2023</v>
+      </c>
+      <c r="C5" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B6">
+        <v>2014</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>260</v>
+      </c>
+      <c r="B7">
+        <v>2017</v>
+      </c>
+      <c r="C7" t="s">
+        <v>228</v>
+      </c>
+      <c r="D7" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>262</v>
+      </c>
+      <c r="B8">
+        <v>2021</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>265</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" t="s">
+        <v>266</v>
+      </c>
+      <c r="E9" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>267</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B11">
+        <v>2023</v>
+      </c>
+      <c r="C11" t="s">
+        <v>487</v>
+      </c>
+      <c r="D11" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
+      <c r="E12" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>858</v>
+      </c>
+      <c r="B13">
+        <v>2016</v>
+      </c>
+      <c r="C13" t="s">
+        <v>228</v>
+      </c>
+      <c r="D13" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B16">
+        <v>2000</v>
+      </c>
+      <c r="D16" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>180</v>
+      </c>
+      <c r="B17">
+        <v>2014</v>
+      </c>
+      <c r="D17" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>277</v>
+      </c>
+      <c r="B18">
+        <v>2019</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>271</v>
+      </c>
+      <c r="B19">
+        <v>2020</v>
+      </c>
+      <c r="C19" t="s">
+        <v>272</v>
+      </c>
+      <c r="D19" t="s">
+        <v>273</v>
+      </c>
+      <c r="E19" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>275</v>
+      </c>
+      <c r="B20">
+        <v>2023</v>
+      </c>
+      <c r="C20" t="s">
+        <v>85</v>
+      </c>
+      <c r="D20" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21">
+        <v>2018</v>
+      </c>
+      <c r="C21" t="s">
+        <v>75</v>
+      </c>
+      <c r="D21" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>779</v>
+      </c>
+      <c r="B22">
+        <v>2021</v>
+      </c>
+      <c r="C22" t="s">
+        <v>210</v>
+      </c>
+      <c r="D22" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>781</v>
+      </c>
+      <c r="B23">
+        <v>2023</v>
+      </c>
+      <c r="C23" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" t="s">
+        <v>782</v>
+      </c>
+      <c r="E23" t="s">
+        <v>783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A901234-6AE5-E242-9984-3158A5CD98B9}">
+  <dimension ref="A1:E32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="200" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="77" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>262</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>297</v>
+      </c>
+      <c r="D3" t="s">
+        <v>298</v>
+      </c>
+      <c r="E3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4">
+        <v>2020</v>
+      </c>
+      <c r="C4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D4" t="s">
+        <v>302</v>
+      </c>
+      <c r="E4" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5">
+        <v>2022</v>
+      </c>
+      <c r="C5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D5" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B6">
+        <v>2015</v>
+      </c>
+      <c r="C6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" t="s">
+        <v>308</v>
+      </c>
+      <c r="E6" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B7">
+        <v>2013</v>
+      </c>
+      <c r="C7" t="s">
+        <v>311</v>
+      </c>
+      <c r="D7" t="s">
+        <v>312</v>
+      </c>
+      <c r="E7" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>348</v>
+      </c>
+      <c r="B8">
+        <v>2009</v>
+      </c>
+      <c r="C8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>653</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" t="s">
+        <v>654</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>923</v>
+      </c>
+      <c r="B10">
+        <v>2023</v>
+      </c>
+      <c r="C10" t="s">
+        <v>713</v>
+      </c>
+      <c r="E10" s="2"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>656</v>
+      </c>
+      <c r="B11">
+        <v>2019</v>
+      </c>
+      <c r="C11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="153" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>0</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>704</v>
+      </c>
+      <c r="B13">
+        <v>2020</v>
+      </c>
+      <c r="C13" t="s">
+        <v>705</v>
+      </c>
+      <c r="D13" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>710</v>
+      </c>
+      <c r="B14">
+        <v>2023</v>
+      </c>
+      <c r="C14" t="s">
+        <v>568</v>
+      </c>
+      <c r="D14" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>712</v>
+      </c>
+      <c r="B15">
+        <v>2004</v>
+      </c>
+      <c r="C15" t="s">
+        <v>713</v>
+      </c>
+      <c r="D15" t="s">
+        <v>714</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E16" s="2" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E17" s="2" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E18" s="2" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E19" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E20" s="2" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>757</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>824</v>
+      </c>
+      <c r="B23">
+        <v>2008</v>
+      </c>
+      <c r="C23" t="s">
+        <v>826</v>
+      </c>
+      <c r="D23" t="s">
+        <v>825</v>
+      </c>
+      <c r="E23" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>829</v>
+      </c>
+      <c r="B24">
+        <v>2018</v>
+      </c>
+      <c r="C24" t="s">
+        <v>593</v>
+      </c>
+      <c r="D24" t="s">
+        <v>828</v>
+      </c>
+      <c r="E24" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>838</v>
+      </c>
+      <c r="B26">
+        <v>2023</v>
+      </c>
+      <c r="C26" t="s">
+        <v>839</v>
+      </c>
+      <c r="D26" t="s">
+        <v>840</v>
+      </c>
+      <c r="E26" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>842</v>
+      </c>
+      <c r="B27">
+        <v>2007</v>
+      </c>
+      <c r="C27" t="s">
+        <v>843</v>
+      </c>
+      <c r="D27" t="s">
+        <v>844</v>
+      </c>
+      <c r="E27" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="E28" s="2" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>864</v>
+      </c>
+      <c r="B29">
+        <v>2007</v>
+      </c>
+      <c r="C29" t="s">
+        <v>817</v>
+      </c>
+      <c r="D29" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>867</v>
+      </c>
+      <c r="B30">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="D30" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>926</v>
+      </c>
+      <c r="B31">
+        <v>2023</v>
+      </c>
+      <c r="C31" t="s">
+        <v>927</v>
+      </c>
+      <c r="D31" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D32" s="2" t="s">
+        <v>963</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{6F1436BD-3894-2341-9537-8F26E15EC894}"/>
+    <hyperlink ref="D12" r:id="rId2" xr:uid="{C4C35932-13DD-B44A-84AE-082E69017B5C}"/>
+    <hyperlink ref="E15" r:id="rId3" xr:uid="{324CA862-FC0E-DB44-8792-5B7D86E01850}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{9AA7B248-CACE-914E-9C82-3382C60F8AB4}"/>
+    <hyperlink ref="E17" r:id="rId5" xr:uid="{DA598186-4ED4-C443-A9CE-04F4D2EA7BA6}"/>
+    <hyperlink ref="E18" r:id="rId6" xr:uid="{77BFF2D2-D82C-CC4B-9131-2859FCF54C44}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{354AB4BE-F45D-EB4E-8F98-C6CD9F09E2C5}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{4DE83DA1-7688-0E41-9F98-CE0A79AC0291}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{D103E711-1EFA-6E47-A2C2-26376445C46D}"/>
+    <hyperlink ref="E25" r:id="rId10" xr:uid="{61072C72-0021-1F4B-B3E1-8DD348BCCC56}"/>
+    <hyperlink ref="E28" r:id="rId11" xr:uid="{159B4EFC-E01C-6E49-833D-68C6FE9E8CA8}"/>
+    <hyperlink ref="D32" r:id="rId12" xr:uid="{C8122B88-B772-5E42-9179-95D1ABEB44CF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48BA084-0222-804A-9A57-F36904A899C1}">
+  <dimension ref="A1:E10"/>
+  <sheetViews>
+    <sheetView zoomScale="242" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>368</v>
+      </c>
+      <c r="B3">
+        <v>2013</v>
+      </c>
+      <c r="D3" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>383</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>384</v>
+      </c>
+      <c r="D4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>624</v>
+      </c>
+      <c r="B5">
+        <v>2019</v>
+      </c>
+      <c r="C5" t="s">
+        <v>391</v>
+      </c>
+      <c r="D5" t="s">
+        <v>890</v>
+      </c>
+      <c r="E5" t="s">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>180</v>
+      </c>
+      <c r="B6">
+        <v>2016</v>
+      </c>
+      <c r="C6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D6" t="s">
+        <v>892</v>
+      </c>
+      <c r="E6" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>895</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10" t="s">
+        <v>896</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15FDDC2B-978F-D046-8609-F2A23F7EEE5F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScale="262" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E12D3B8E-C320-C74A-91B2-B66F5A80409F}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView zoomScale="159" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>930</v>
+      </c>
+      <c r="B2">
+        <v>2018</v>
+      </c>
+      <c r="C2" t="s">
+        <v>931</v>
+      </c>
+      <c r="D2" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>933</v>
+      </c>
+      <c r="B3">
+        <v>2016</v>
+      </c>
+      <c r="C3" t="s">
+        <v>934</v>
+      </c>
+      <c r="D3" t="s">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>936</v>
+      </c>
+      <c r="B4">
+        <v>2021</v>
+      </c>
+      <c r="C4" t="s">
+        <v>934</v>
+      </c>
+      <c r="D4" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>938</v>
+      </c>
+      <c r="B5">
+        <v>2024</v>
+      </c>
+      <c r="C5" t="s">
+        <v>934</v>
+      </c>
+      <c r="D5" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>940</v>
+      </c>
+      <c r="B6">
+        <v>2018</v>
+      </c>
+      <c r="C6" t="s">
+        <v>941</v>
+      </c>
+      <c r="D6" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7">
+        <v>2023</v>
+      </c>
+      <c r="C7" t="s">
+        <v>943</v>
+      </c>
+      <c r="D7" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>944</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>934</v>
+      </c>
+      <c r="D8" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>946</v>
+      </c>
+      <c r="B9">
+        <v>2023</v>
+      </c>
+      <c r="C9" t="s">
+        <v>934</v>
+      </c>
+      <c r="D9" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>948</v>
+      </c>
+      <c r="B10">
+        <v>2013</v>
+      </c>
+      <c r="C10" t="s">
+        <v>949</v>
+      </c>
+      <c r="D10" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>951</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>952</v>
+      </c>
+      <c r="D11" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>954</v>
+      </c>
+      <c r="B12">
+        <v>2021</v>
+      </c>
+      <c r="C12" t="s">
+        <v>490</v>
+      </c>
+      <c r="D12" t="s">
+        <v>955</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BDFC2E6-7B8A-5D4A-BBE9-50CF6A818E65}">
+  <dimension ref="A1:E36"/>
+  <sheetViews>
+    <sheetView zoomScale="228" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3">
+        <v>2022</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>579</v>
+      </c>
+      <c r="B4">
+        <v>2017</v>
+      </c>
+      <c r="C4" t="s">
+        <v>580</v>
+      </c>
+      <c r="D4" t="s">
+        <v>581</v>
+      </c>
+      <c r="E4" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>750</v>
+      </c>
+      <c r="B5">
+        <v>2013</v>
+      </c>
+      <c r="C5" t="s">
+        <v>490</v>
+      </c>
+      <c r="D5" t="s">
+        <v>751</v>
+      </c>
+      <c r="E5" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>788</v>
+      </c>
+      <c r="B6">
+        <v>2024</v>
+      </c>
+      <c r="C6" t="s">
+        <v>189</v>
+      </c>
+      <c r="D6" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>808</v>
+      </c>
+      <c r="B7">
+        <v>2020</v>
+      </c>
+      <c r="C7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D7" t="s">
+        <v>809</v>
+      </c>
+      <c r="E7" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>956</v>
+      </c>
+      <c r="B8">
+        <v>2015</v>
+      </c>
+      <c r="C8" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>958</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>959</v>
+      </c>
+      <c r="D9" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>2024</v>
+      </c>
+      <c r="C12" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13">
+        <v>2024</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>583</v>
+      </c>
+      <c r="B14">
+        <v>2022</v>
+      </c>
+      <c r="C14" t="s">
+        <v>353</v>
+      </c>
+      <c r="D14" t="s">
+        <v>584</v>
+      </c>
+      <c r="E14" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>258</v>
+      </c>
+      <c r="B18">
+        <v>2024</v>
+      </c>
+      <c r="C18" t="s">
+        <v>790</v>
+      </c>
+      <c r="D18" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19">
+        <v>2024</v>
+      </c>
+      <c r="C19" t="s">
+        <v>797</v>
+      </c>
+      <c r="D19" t="s">
+        <v>798</v>
+      </c>
+      <c r="E19" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>2024</v>
+      </c>
+      <c r="C22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>792</v>
+      </c>
+      <c r="B23">
+        <v>2021</v>
+      </c>
+      <c r="C23" t="s">
+        <v>794</v>
+      </c>
+      <c r="D23" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>795</v>
+      </c>
+      <c r="B24">
+        <v>2020</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>801</v>
+      </c>
+      <c r="B27">
+        <v>1997</v>
+      </c>
+      <c r="C27" t="s">
+        <v>802</v>
+      </c>
+      <c r="D27" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>579</v>
+      </c>
+      <c r="B28">
+        <v>2017</v>
+      </c>
+      <c r="C28" t="s">
+        <v>580</v>
+      </c>
+      <c r="D28" t="s">
+        <v>581</v>
+      </c>
+      <c r="E28" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>804</v>
+      </c>
+      <c r="B29">
+        <v>2016</v>
+      </c>
+      <c r="C29" t="s">
+        <v>805</v>
+      </c>
+      <c r="D29" t="s">
+        <v>807</v>
+      </c>
+      <c r="E29" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>583</v>
+      </c>
+      <c r="B30">
+        <v>2022</v>
+      </c>
+      <c r="C30" t="s">
+        <v>353</v>
+      </c>
+      <c r="D30" t="s">
+        <v>584</v>
+      </c>
+      <c r="E30" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>808</v>
+      </c>
+      <c r="B31">
+        <v>2020</v>
+      </c>
+      <c r="C31" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" t="s">
+        <v>809</v>
+      </c>
+      <c r="E31" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>812</v>
+      </c>
+      <c r="B32">
+        <v>2011</v>
+      </c>
+      <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" t="s">
+        <v>811</v>
+      </c>
+      <c r="E32" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>814</v>
+      </c>
+      <c r="B33">
+        <v>2022</v>
+      </c>
+      <c r="C33" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>816</v>
+      </c>
+      <c r="B34">
+        <v>2015</v>
+      </c>
+      <c r="C34" t="s">
+        <v>817</v>
+      </c>
+      <c r="D34" t="s">
+        <v>818</v>
+      </c>
+      <c r="E34" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>820</v>
+      </c>
+      <c r="B35">
+        <v>2019</v>
+      </c>
+      <c r="C35" t="s">
+        <v>817</v>
+      </c>
+      <c r="D35" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>822</v>
+      </c>
+      <c r="B36">
+        <v>2024</v>
+      </c>
+      <c r="C36" t="s">
+        <v>204</v>
+      </c>
+      <c r="D36" t="s">
+        <v>823</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE9BB61D-DF38-7741-BE43-CD14BB10F1E0}">
-  <dimension ref="A1:E103"/>
+  <dimension ref="A1:E106"/>
   <sheetViews>
-    <sheetView topLeftCell="A78" zoomScale="226" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A62" zoomScale="226" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4600,71 +7216,71 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B3" s="3">
         <v>2010</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D3" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="E3" s="3" t="s">
         <v>364</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B4" s="3">
         <v>2021</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B5" s="3">
         <v>2021</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B6" s="3">
         <v>2022</v>
       </c>
       <c r="C6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B7" s="3">
         <v>2024</v>
@@ -4673,31 +7289,31 @@
         <v>71</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B8" s="3">
         <v>2024</v>
       </c>
       <c r="C8" s="3" t="s">
+        <v>672</v>
+      </c>
+      <c r="D8" s="3" t="s">
         <v>673</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B12" s="3">
         <v>2011</v>
@@ -4706,12 +7322,12 @@
         <v>31</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B13" s="3">
         <v>2024</v>
@@ -4720,46 +7336,46 @@
         <v>71</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B14" s="3">
         <v>2012</v>
       </c>
       <c r="C14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>101</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B15" s="3">
         <v>2014</v>
       </c>
       <c r="C15" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B16" s="3">
         <v>2010</v>
@@ -4768,32 +7384,32 @@
         <v>23</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>118</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B17" s="3">
         <v>2014</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B18" s="3">
         <v>2020</v>
@@ -4802,63 +7418,63 @@
         <v>34</v>
       </c>
       <c r="D18" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>137</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B19" s="3">
         <v>2007</v>
       </c>
       <c r="C19" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D19" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>141</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" s="3">
         <v>2007</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D20" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B21" s="3">
         <v>2015</v>
       </c>
       <c r="C21" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="D21" s="3" t="s">
         <v>354</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B22" s="3">
         <v>2019</v>
@@ -4867,68 +7483,68 @@
         <v>78</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B23" s="3">
         <v>2011</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="D23" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B24" s="3">
         <v>2008</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B25" s="3">
         <v>2022</v>
       </c>
       <c r="C25" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D25" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B26" s="3">
         <v>2015</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B27" s="3">
         <v>2016</v>
@@ -4937,124 +7553,124 @@
         <v>23</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B28" s="3">
         <v>2015</v>
       </c>
       <c r="C28" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="D28" s="3" t="s">
         <v>466</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>467</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B29" s="3">
         <v>2014</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="D29" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D29" s="3" t="s">
-        <v>470</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B30" s="3">
         <v>2014</v>
       </c>
       <c r="C30" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D30" s="3" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B31" s="3">
         <v>2022</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="3">
         <v>2013</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B33" s="3">
         <v>2013</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B34" s="3">
         <v>2023</v>
       </c>
       <c r="C34" s="3" t="s">
+        <v>487</v>
+      </c>
+      <c r="D34" s="3" t="s">
         <v>488</v>
-      </c>
-      <c r="D34" s="3" t="s">
-        <v>489</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B35" s="3">
         <v>2010</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B36" s="3">
         <v>2014</v>
@@ -5063,26 +7679,26 @@
         <v>75</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B37" s="3">
         <v>2014</v>
       </c>
       <c r="C37" s="3" t="s">
+        <v>516</v>
+      </c>
+      <c r="D37" s="3" t="s">
         <v>517</v>
-      </c>
-      <c r="D37" s="3" t="s">
-        <v>518</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B38" s="3">
         <v>2012</v>
@@ -5091,12 +7707,12 @@
         <v>23</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B39" s="3">
         <v>2021</v>
@@ -5105,68 +7721,68 @@
         <v>23</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B40" s="3">
         <v>2015</v>
       </c>
       <c r="C40" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="D40" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="D40" s="3" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="3">
         <v>2018</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B42" s="3">
         <v>2013</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B43" s="3">
         <v>2015</v>
       </c>
       <c r="C43" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D43" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="D43" s="3" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B44" s="3">
         <v>2010</v>
@@ -5175,7 +7791,7 @@
         <v>60</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -5186,731 +7802,779 @@
         <v>2022</v>
       </c>
       <c r="C45" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="D45" s="3" t="s">
         <v>540</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B46" s="3">
         <v>2008</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B47" s="3">
         <v>2024</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>666</v>
+      </c>
+      <c r="D47" s="3" t="s">
         <v>667</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="3" t="s">
-        <v>316</v>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="B48" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="B50" s="3">
-        <v>2007</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>112</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>151</v>
+        <v>109</v>
       </c>
       <c r="B51" s="3">
-        <v>2021</v>
+        <v>2007</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>152</v>
+        <v>110</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B52" s="3">
-        <v>2012</v>
+        <v>2021</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>154</v>
+        <v>83</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>155</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B53" s="3">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>324</v>
+        <v>159</v>
       </c>
       <c r="B54" s="3">
-        <v>2011</v>
+        <v>2022</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>325</v>
+        <v>160</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>326</v>
+        <v>161</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B55" s="3">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>23</v>
+        <v>324</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="E55" s="3" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B56" s="3">
         <v>2020</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>331</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>332</v>
+        <v>327</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>263</v>
+        <v>329</v>
       </c>
       <c r="B57" s="3">
-        <v>2004</v>
+        <v>2020</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>475</v>
+        <v>330</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>474</v>
+        <v>331</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>490</v>
+        <v>262</v>
       </c>
       <c r="B58" s="3">
         <v>2004</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>492</v>
+        <v>473</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="B59" s="3">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>23</v>
+        <v>490</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" s="3" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B60" s="3">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>496</v>
+        <v>23</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="B61" s="3">
-        <v>2014</v>
+        <v>2010</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>75</v>
+        <v>495</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B62" s="3">
-        <v>2015</v>
+        <v>2014</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>200</v>
+        <v>75</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="s">
-        <v>531</v>
+        <v>502</v>
       </c>
       <c r="B63" s="3">
-        <v>2023</v>
+        <v>2015</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>75</v>
+        <v>199</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>532</v>
+        <v>503</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="B64" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="s">
+        <v>668</v>
+      </c>
+      <c r="B65" s="3">
+        <v>1998</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D65" s="3" t="s">
         <v>669</v>
       </c>
-      <c r="B64" s="3">
-        <v>1998</v>
-      </c>
-      <c r="C64" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D64" s="3" t="s">
+      <c r="E65" s="3" t="s">
         <v>670</v>
-      </c>
-      <c r="E64" s="3" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A66" s="3" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B67" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D67" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="E67" s="3" t="s">
-        <v>106</v>
+        <v>317</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B68" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E68" s="3" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="B69" s="3">
+        <v>2024</v>
+      </c>
+      <c r="C69" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B68" s="3">
-        <v>2024</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="D69" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D68" s="3" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
-        <v>319</v>
+        <v>846</v>
+      </c>
+      <c r="B70" s="3">
+        <v>2023</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D70" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>848</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
-        <v>117</v>
+        <v>849</v>
       </c>
       <c r="B71" s="3">
-        <v>2010</v>
+        <v>2024</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>23</v>
+        <v>672</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>118</v>
+        <v>850</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A72" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B72" s="3">
-        <v>2019</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>125</v>
+        <v>851</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B73" s="3">
-        <v>2021</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="B74" s="3">
-        <v>2023</v>
+        <v>2010</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="B75" s="3">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>17</v>
+        <v>122</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B76" s="3">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>476</v>
+        <v>34</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>477</v>
+        <v>130</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
-        <v>520</v>
+        <v>131</v>
       </c>
       <c r="B77" s="3">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>521</v>
+        <v>132</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>519</v>
+        <v>133</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
-        <v>363</v>
+        <v>145</v>
       </c>
       <c r="B78" s="3">
-        <v>2012</v>
+        <v>2015</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>522</v>
+        <v>146</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B79" s="3">
+        <v>2019</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="B80" s="3">
+        <v>2011</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="B81" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B82" s="3">
         <v>2017</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>286</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
-      <c r="D82" s="4"/>
-      <c r="E82" s="4"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="B83" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C83" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A84" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B84" s="3">
-        <v>2008</v>
-      </c>
-      <c r="C84" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>96</v>
+      <c r="C82" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="D82" s="3" t="s">
+        <v>522</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="B85" s="3">
-        <v>2024</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>675</v>
-      </c>
+      <c r="A85" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B86" s="3">
-        <v>2020</v>
+        <v>2017</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>108</v>
+        <v>91</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="E86" s="5"/>
+        <v>92</v>
+      </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
-        <v>120</v>
+        <v>93</v>
       </c>
       <c r="B87" s="3">
-        <v>2015</v>
+        <v>2008</v>
       </c>
       <c r="C87" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D87" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
-        <v>149</v>
+        <v>96</v>
       </c>
       <c r="B88" s="3">
-        <v>2022</v>
+        <v>2024</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>150</v>
+        <v>97</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="B89" s="3">
-        <v>2013</v>
+        <v>2020</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>159</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E89" s="5"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
-        <v>164</v>
+        <v>119</v>
       </c>
       <c r="B90" s="3">
-        <v>2005</v>
+        <v>2015</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="E90" s="3" t="s">
-        <v>166</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
-        <v>333</v>
+        <v>148</v>
       </c>
       <c r="B91" s="3">
-        <v>2000</v>
+        <v>2022</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>211</v>
+        <v>91</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>334</v>
+        <v>149</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
-        <v>335</v>
+        <v>156</v>
       </c>
       <c r="B92" s="3">
-        <v>2016</v>
+        <v>2013</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>336</v>
+        <v>157</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>337</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
-        <v>349</v>
+        <v>163</v>
       </c>
       <c r="B93" s="3">
-        <v>2017</v>
+        <v>2005</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>350</v>
+        <v>91</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>351</v>
+        <v>164</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="B94" s="3">
-        <v>2018</v>
+        <v>2000</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>78</v>
+        <v>210</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
-        <v>482</v>
+        <v>334</v>
       </c>
       <c r="B95" s="3">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>483</v>
+        <v>335</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>481</v>
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
-        <v>498</v>
+        <v>348</v>
       </c>
       <c r="B96" s="3">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>499</v>
+        <v>349</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>500</v>
+        <v>350</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="B97" s="3">
+        <v>2018</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D97" s="3" t="s">
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
-        <v>338</v>
+        <v>481</v>
+      </c>
+      <c r="B98" s="3">
+        <v>2012</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>480</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="3" t="s">
+        <v>497</v>
+      </c>
       <c r="B99" s="3">
-        <v>2001</v>
+        <v>2013</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>211</v>
+        <v>498</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="B100" s="3">
-        <v>2001</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>341</v>
+        <v>499</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="B101" s="3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B102" s="3">
         <v>2001</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="B102" s="3">
-        <v>2015</v>
-      </c>
       <c r="C102" s="3" t="s">
-        <v>345</v>
+        <v>210</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="B103" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="B104" s="3">
+        <v>2001</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="B105" s="3">
+        <v>2015</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="B106" s="3">
+        <v>2017</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="D106" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="B103" s="3">
-        <v>2017</v>
-      </c>
-      <c r="C103" s="3" t="s">
-        <v>345</v>
-      </c>
-      <c r="D103" s="3" t="s">
-        <v>348</v>
       </c>
     </row>
   </sheetData>
@@ -5918,12 +8582,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{916432F7-C74C-AD4A-ABA8-73E28AD7371B}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="307" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView zoomScale="216" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5947,111 +8611,111 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B3">
         <v>2009</v>
       </c>
       <c r="C3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D3" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B4">
         <v>2012</v>
       </c>
       <c r="C4" t="s">
+        <v>282</v>
+      </c>
+      <c r="D4" t="s">
         <v>283</v>
-      </c>
-      <c r="D4" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B5">
         <v>2018</v>
       </c>
       <c r="C5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" t="s">
         <v>286</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>287</v>
-      </c>
-      <c r="E5" t="s">
-        <v>288</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B6">
         <v>2011</v>
       </c>
       <c r="C6" t="s">
+        <v>289</v>
+      </c>
+      <c r="D6" t="s">
         <v>290</v>
-      </c>
-      <c r="D6" t="s">
-        <v>291</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B7">
         <v>2000</v>
       </c>
       <c r="C7" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B8">
         <v>2018</v>
       </c>
       <c r="C8" t="s">
+        <v>294</v>
+      </c>
+      <c r="D8" t="s">
         <v>295</v>
-      </c>
-      <c r="D8" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B9">
         <v>2021</v>
       </c>
       <c r="C9" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D9" t="s">
+        <v>247</v>
+      </c>
+      <c r="E9" t="s">
         <v>248</v>
-      </c>
-      <c r="E9" t="s">
-        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -6059,12 +8723,264 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECB6F980-4223-D147-96CD-EDBB53C1EDAB}">
+  <dimension ref="A1:E12"/>
+  <sheetViews>
+    <sheetView zoomScale="212" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="82.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>899</v>
+      </c>
+      <c r="B3">
+        <v>2002</v>
+      </c>
+      <c r="C3" t="s">
+        <v>901</v>
+      </c>
+      <c r="D3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>903</v>
+      </c>
+      <c r="B4">
+        <v>2022</v>
+      </c>
+      <c r="C4" t="s">
+        <v>495</v>
+      </c>
+      <c r="D4" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>910</v>
+      </c>
+      <c r="B5">
+        <v>2009</v>
+      </c>
+      <c r="C5" t="s">
+        <v>911</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="D6" s="8" t="s">
+        <v>921</v>
+      </c>
+      <c r="E6" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>908</v>
+      </c>
+      <c r="B8">
+        <v>2016</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>918</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>204</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>912</v>
+      </c>
+      <c r="B12">
+        <v>2019</v>
+      </c>
+      <c r="C12" t="s">
+        <v>914</v>
+      </c>
+      <c r="D12" t="s">
+        <v>913</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D6" r:id="rId1" xr:uid="{49B2C8D6-E26A-B24F-9366-E42FF7C4F897}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0090F9BE-30AF-654B-94EF-F9077D04B7D2}">
+  <dimension ref="A1:E11"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="66.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>2021</v>
+      </c>
+      <c r="C3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D3" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>832</v>
+      </c>
+      <c r="B9">
+        <v>2021</v>
+      </c>
+      <c r="C9" t="s">
+        <v>833</v>
+      </c>
+      <c r="D9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>832</v>
+      </c>
+      <c r="B10">
+        <v>2024</v>
+      </c>
+      <c r="C10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D10" t="s">
+        <v>835</v>
+      </c>
+      <c r="E10" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>832</v>
+      </c>
+      <c r="B11">
+        <v>2024</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>853</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D918E45-F55E-644C-8D94-1CC1713EA928}">
-  <dimension ref="A1:E33"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="200" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="200" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6088,96 +9004,96 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B3">
         <v>2021</v>
       </c>
       <c r="C3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D3" t="s">
         <v>205</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>206</v>
-      </c>
-      <c r="E3" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B4">
         <v>2018</v>
       </c>
       <c r="C4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B5">
         <v>2024</v>
       </c>
       <c r="C5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" t="s">
         <v>211</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>212</v>
-      </c>
-      <c r="E5" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B6">
         <v>2024</v>
       </c>
       <c r="C6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D6" t="s">
+        <v>214</v>
+      </c>
+      <c r="E6" t="s">
         <v>215</v>
-      </c>
-      <c r="E6" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B9">
         <v>2014</v>
       </c>
       <c r="C9" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D9" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B10">
         <v>2016</v>
@@ -6186,157 +9102,157 @@
         <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B11">
         <v>2019</v>
       </c>
       <c r="C11" t="s">
+        <v>239</v>
+      </c>
+      <c r="D11" t="s">
         <v>240</v>
-      </c>
-      <c r="D11" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B12">
         <v>2020</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B15">
         <v>2021</v>
       </c>
       <c r="C15" t="s">
+        <v>204</v>
+      </c>
+      <c r="D15" t="s">
         <v>205</v>
       </c>
-      <c r="D15" t="s">
-        <v>206</v>
-      </c>
       <c r="E15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B16">
         <v>2021</v>
       </c>
       <c r="C16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D16" t="s">
         <v>219</v>
-      </c>
-      <c r="D16" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B17">
         <v>2023</v>
       </c>
       <c r="C17" t="s">
+        <v>224</v>
+      </c>
+      <c r="D17" t="s">
         <v>225</v>
       </c>
-      <c r="D17" t="s">
+      <c r="E17" t="s">
         <v>226</v>
-      </c>
-      <c r="E17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B18">
         <v>2015</v>
       </c>
       <c r="C18" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D18" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B19">
         <v>2023</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B20">
         <v>2021</v>
       </c>
       <c r="C20" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D20" t="s">
+        <v>247</v>
+      </c>
+      <c r="E20" t="s">
         <v>248</v>
-      </c>
-      <c r="E20" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="B21">
         <v>2015</v>
       </c>
       <c r="C21" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="D21" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B24">
         <v>2023</v>
@@ -6345,73 +9261,87 @@
         <v>10</v>
       </c>
       <c r="D24" t="s">
+        <v>221</v>
+      </c>
+      <c r="E24" t="s">
         <v>222</v>
-      </c>
-      <c r="E24" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B25">
         <v>2022</v>
       </c>
       <c r="C25" t="s">
+        <v>228</v>
+      </c>
+      <c r="D25" t="s">
         <v>229</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>230</v>
       </c>
-      <c r="E25" t="s">
-        <v>231</v>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>897</v>
+      </c>
+      <c r="B26">
+        <v>2014</v>
+      </c>
+      <c r="C26" t="s">
+        <v>495</v>
+      </c>
+      <c r="D26" t="s">
+        <v>898</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B28">
         <v>2009</v>
       </c>
       <c r="C28" t="s">
+        <v>234</v>
+      </c>
+      <c r="D28" t="s">
         <v>235</v>
-      </c>
-      <c r="D28" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B29">
         <v>2007</v>
       </c>
       <c r="C29" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
+        <v>244</v>
+      </c>
+      <c r="E29" t="s">
         <v>245</v>
-      </c>
-      <c r="E29" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="B33">
         <v>2018</v>
@@ -6420,7 +9350,60 @@
         <v>23</v>
       </c>
       <c r="D33" t="s">
-        <v>711</v>
+        <v>709</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>854</v>
+      </c>
+      <c r="B38">
+        <v>2023</v>
+      </c>
+      <c r="C38" t="s">
+        <v>855</v>
+      </c>
+      <c r="D38" t="s">
+        <v>856</v>
+      </c>
+      <c r="E38" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>887</v>
+      </c>
+      <c r="B39">
+        <v>2020</v>
+      </c>
+      <c r="C39" t="s">
+        <v>881</v>
+      </c>
+      <c r="D39" t="s">
+        <v>888</v>
+      </c>
+      <c r="E39" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>907</v>
+      </c>
+      <c r="B40">
+        <v>2018</v>
+      </c>
+      <c r="C40" t="s">
+        <v>906</v>
+      </c>
+      <c r="D40" t="s">
+        <v>904</v>
       </c>
     </row>
   </sheetData>
@@ -6428,12 +9411,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D12AEADB-CD82-BE44-94D2-3A2401D0376A}">
   <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView zoomScale="249" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD27"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6457,40 +9440,40 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B3">
         <v>2015</v>
       </c>
       <c r="C3" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3" t="s">
         <v>376</v>
-      </c>
-      <c r="D3" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B4">
         <v>2016</v>
       </c>
       <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" t="s">
         <v>379</v>
-      </c>
-      <c r="D4" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B5">
         <v>2024</v>
@@ -6499,154 +9482,154 @@
         <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>2020</v>
       </c>
       <c r="C6" t="s">
+        <v>167</v>
+      </c>
+      <c r="D6" t="s">
+        <v>413</v>
+      </c>
+      <c r="E6" t="s">
         <v>168</v>
-      </c>
-      <c r="D6" t="s">
-        <v>414</v>
-      </c>
-      <c r="E6" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B7">
         <v>2023</v>
       </c>
       <c r="D7" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B8">
         <v>2022</v>
       </c>
       <c r="C8" t="s">
+        <v>417</v>
+      </c>
+      <c r="D8" t="s">
         <v>418</v>
-      </c>
-      <c r="D8" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B9">
         <v>2015</v>
       </c>
       <c r="C9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>2018</v>
       </c>
       <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" t="s">
         <v>182</v>
       </c>
-      <c r="D10" t="s">
+      <c r="E10" t="s">
         <v>183</v>
-      </c>
-      <c r="E10" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B11">
         <v>2023</v>
       </c>
       <c r="C11" t="s">
+        <v>504</v>
+      </c>
+      <c r="D11" t="s">
         <v>505</v>
-      </c>
-      <c r="D11" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>2018</v>
       </c>
       <c r="C14" t="s">
+        <v>170</v>
+      </c>
+      <c r="D14" t="s">
         <v>171</v>
-      </c>
-      <c r="D14" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B15">
         <v>2021</v>
       </c>
       <c r="C15" t="s">
+        <v>173</v>
+      </c>
+      <c r="D15" t="s">
         <v>174</v>
       </c>
-      <c r="D15" t="s">
+      <c r="E15" t="s">
         <v>175</v>
-      </c>
-      <c r="E15" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B18">
         <v>1997</v>
       </c>
       <c r="C18" t="s">
+        <v>388</v>
+      </c>
+      <c r="D18" t="s">
         <v>389</v>
-      </c>
-      <c r="D18" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B19">
         <v>2009</v>
@@ -6655,68 +9638,68 @@
         <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B20">
         <v>2012</v>
       </c>
       <c r="C20" t="s">
+        <v>407</v>
+      </c>
+      <c r="D20" t="s">
         <v>408</v>
-      </c>
-      <c r="D20" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B21">
         <v>2011</v>
       </c>
       <c r="C21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D21" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B22">
         <v>2018</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B23">
         <v>2013</v>
       </c>
       <c r="C23" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D23" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B24">
         <v>2003</v>
@@ -6725,295 +9708,295 @@
         <v>34</v>
       </c>
       <c r="D24" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B25">
         <v>2000</v>
       </c>
       <c r="C25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D25" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B26">
         <v>2020</v>
       </c>
       <c r="C26" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D26" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B27">
         <v>2012</v>
       </c>
       <c r="C27" t="s">
+        <v>282</v>
+      </c>
+      <c r="D27" t="s">
         <v>283</v>
-      </c>
-      <c r="D27" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B30">
         <v>2007</v>
       </c>
       <c r="C30" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D30" t="s">
+        <v>192</v>
+      </c>
+      <c r="E30" t="s">
         <v>193</v>
-      </c>
-      <c r="E30" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B31">
         <v>2010</v>
       </c>
       <c r="C31" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D31" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B32">
         <v>2015</v>
       </c>
       <c r="C32" t="s">
+        <v>396</v>
+      </c>
+      <c r="D32" t="s">
         <v>397</v>
-      </c>
-      <c r="D32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B33">
         <v>2019</v>
       </c>
       <c r="C33" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D33" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B34">
         <v>2021</v>
       </c>
       <c r="C34" t="s">
+        <v>401</v>
+      </c>
+      <c r="D34" t="s">
         <v>402</v>
-      </c>
-      <c r="D34" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35">
         <v>2023</v>
       </c>
       <c r="C35" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D35" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B36">
         <v>2017</v>
       </c>
       <c r="C36" t="s">
+        <v>177</v>
+      </c>
+      <c r="D36" t="s">
         <v>178</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>179</v>
-      </c>
-      <c r="E36" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B37">
         <v>2021</v>
       </c>
       <c r="C37" t="s">
+        <v>185</v>
+      </c>
+      <c r="D37" t="s">
         <v>186</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>187</v>
-      </c>
-      <c r="E37" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B38">
         <v>2021</v>
       </c>
       <c r="C38" t="s">
+        <v>189</v>
+      </c>
+      <c r="D38" t="s">
         <v>190</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>191</v>
-      </c>
-      <c r="E38" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B39">
         <v>2020</v>
       </c>
       <c r="C39" t="s">
+        <v>199</v>
+      </c>
+      <c r="D39" t="s">
         <v>200</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>201</v>
-      </c>
-      <c r="E39" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40">
         <v>2008</v>
       </c>
       <c r="D40" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B41">
         <v>2009</v>
       </c>
       <c r="C41" t="s">
+        <v>429</v>
+      </c>
+      <c r="D41" t="s">
         <v>430</v>
-      </c>
-      <c r="D41" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B42">
         <v>2015</v>
       </c>
       <c r="C42" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B43">
         <v>2018</v>
       </c>
       <c r="C43" t="s">
+        <v>437</v>
+      </c>
+      <c r="D43" t="s">
         <v>438</v>
-      </c>
-      <c r="D43" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B44">
         <v>2019</v>
       </c>
       <c r="C44" t="s">
+        <v>440</v>
+      </c>
+      <c r="D44" t="s">
         <v>441</v>
-      </c>
-      <c r="D44" t="s">
-        <v>442</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B45">
         <v>2010</v>
       </c>
       <c r="C45" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D45" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B46">
         <v>2011</v>
@@ -7022,26 +10005,26 @@
         <v>75</v>
       </c>
       <c r="D46" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B47">
         <v>2004</v>
       </c>
       <c r="C47" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D47" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B48">
         <v>2008</v>
@@ -7050,12 +10033,12 @@
         <v>75</v>
       </c>
       <c r="D48" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B49">
         <v>2009</v>
@@ -7064,26 +10047,26 @@
         <v>23</v>
       </c>
       <c r="D49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B50">
         <v>2013</v>
       </c>
       <c r="C50" t="s">
+        <v>462</v>
+      </c>
+      <c r="D50" t="s">
         <v>463</v>
-      </c>
-      <c r="D50" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B51">
         <v>2014</v>
@@ -7092,614 +10075,35 @@
         <v>23</v>
       </c>
       <c r="D51" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52">
         <v>2007</v>
       </c>
       <c r="C52" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D52" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B53">
         <v>2006</v>
       </c>
       <c r="C53" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="D53" t="s">
-        <v>515</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F443CB-6CF7-B749-AE57-0ED5E546B9BC}">
-  <dimension ref="A1:E21"/>
-  <sheetViews>
-    <sheetView zoomScale="259" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B3">
-        <v>2023</v>
-      </c>
-      <c r="C3" t="s">
-        <v>252</v>
-      </c>
-      <c r="D3" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B4">
-        <v>2023</v>
-      </c>
-      <c r="C4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D4" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>256</v>
-      </c>
-      <c r="B5">
-        <v>2023</v>
-      </c>
-      <c r="C5" t="s">
-        <v>257</v>
-      </c>
-      <c r="D5" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B6">
-        <v>2014</v>
-      </c>
-      <c r="C6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D6" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>261</v>
-      </c>
-      <c r="B7">
-        <v>2017</v>
-      </c>
-      <c r="C7" t="s">
-        <v>229</v>
-      </c>
-      <c r="D7" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>263</v>
-      </c>
-      <c r="B8">
-        <v>2021</v>
-      </c>
-      <c r="C8" t="s">
-        <v>264</v>
-      </c>
-      <c r="D8" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>266</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="C9" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10">
-        <v>2023</v>
-      </c>
-      <c r="C10" t="s">
-        <v>269</v>
-      </c>
-      <c r="D10" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>487</v>
-      </c>
-      <c r="B11">
-        <v>2023</v>
-      </c>
-      <c r="C11" t="s">
-        <v>488</v>
-      </c>
-      <c r="D11" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>247</v>
-      </c>
-      <c r="B12">
-        <v>2021</v>
-      </c>
-      <c r="C12" t="s">
-        <v>225</v>
-      </c>
-      <c r="D12" t="s">
-        <v>248</v>
-      </c>
-      <c r="E12" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
-        <v>372</v>
-      </c>
-      <c r="B16">
-        <v>2000</v>
-      </c>
-      <c r="D16" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B17">
-        <v>2014</v>
-      </c>
-      <c r="D17" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>278</v>
-      </c>
-      <c r="B18">
-        <v>2019</v>
-      </c>
-      <c r="C18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>272</v>
-      </c>
-      <c r="B19">
-        <v>2020</v>
-      </c>
-      <c r="C19" t="s">
-        <v>273</v>
-      </c>
-      <c r="D19" t="s">
-        <v>274</v>
-      </c>
-      <c r="E19" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>276</v>
-      </c>
-      <c r="B20">
-        <v>2023</v>
-      </c>
-      <c r="C20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D20" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>181</v>
-      </c>
-      <c r="B21">
-        <v>2018</v>
-      </c>
-      <c r="C21" t="s">
-        <v>75</v>
-      </c>
-      <c r="D21" t="s">
-        <v>446</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A901234-6AE5-E242-9984-3158A5CD98B9}">
-  <dimension ref="A1:E18"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="5" max="5" width="32.6640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>263</v>
-      </c>
-      <c r="B3">
-        <v>2016</v>
-      </c>
-      <c r="C3" t="s">
-        <v>298</v>
-      </c>
-      <c r="D3" t="s">
-        <v>299</v>
-      </c>
-      <c r="E3" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4">
-        <v>2020</v>
-      </c>
-      <c r="C4" t="s">
-        <v>302</v>
-      </c>
-      <c r="D4" t="s">
-        <v>303</v>
-      </c>
-      <c r="E4" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>305</v>
-      </c>
-      <c r="B5">
-        <v>2022</v>
-      </c>
-      <c r="C5" t="s">
-        <v>306</v>
-      </c>
-      <c r="D5" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B6">
-        <v>2015</v>
-      </c>
-      <c r="C6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D6" t="s">
-        <v>309</v>
-      </c>
-      <c r="E6" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>311</v>
-      </c>
-      <c r="B7">
-        <v>2013</v>
-      </c>
-      <c r="C7" t="s">
-        <v>312</v>
-      </c>
-      <c r="D7" t="s">
-        <v>313</v>
-      </c>
-      <c r="E7" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>349</v>
-      </c>
-      <c r="B8">
-        <v>2009</v>
-      </c>
-      <c r="C8" t="s">
-        <v>639</v>
-      </c>
-      <c r="D8" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>654</v>
-      </c>
-      <c r="B9">
-        <v>2023</v>
-      </c>
-      <c r="C9" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" t="s">
-        <v>655</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>657</v>
-      </c>
-      <c r="B10">
-        <v>2019</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="409.5" x14ac:dyDescent="0.2">
-      <c r="D11" s="2" t="s">
-        <v>676</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>677</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>706</v>
-      </c>
-      <c r="B12">
-        <v>2020</v>
-      </c>
-      <c r="C12" t="s">
-        <v>707</v>
-      </c>
-      <c r="D12" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>712</v>
-      </c>
-      <c r="B13">
-        <v>2023</v>
-      </c>
-      <c r="C13" t="s">
-        <v>569</v>
-      </c>
-      <c r="D13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>714</v>
-      </c>
-      <c r="B14">
-        <v>2004</v>
-      </c>
-      <c r="C14" t="s">
-        <v>715</v>
-      </c>
-      <c r="D14" t="s">
-        <v>716</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E15" s="2" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="E16" s="2" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="17" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E17" s="2" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="18" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E18" t="s">
-        <v>733</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" xr:uid="{6F1436BD-3894-2341-9537-8F26E15EC894}"/>
-    <hyperlink ref="D11" r:id="rId2" xr:uid="{C4C35932-13DD-B44A-84AE-082E69017B5C}"/>
-    <hyperlink ref="E14" r:id="rId3" xr:uid="{324CA862-FC0E-DB44-8792-5B7D86E01850}"/>
-    <hyperlink ref="E15" r:id="rId4" xr:uid="{9AA7B248-CACE-914E-9C82-3382C60F8AB4}"/>
-    <hyperlink ref="E16" r:id="rId5" xr:uid="{DA598186-4ED4-C443-A9CE-04F4D2EA7BA6}"/>
-    <hyperlink ref="E17" r:id="rId6" xr:uid="{77BFF2D2-D82C-CC4B-9131-2859FCF54C44}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A48BA084-0222-804A-9A57-F36904A899C1}">
-  <dimension ref="A1:E4"/>
-  <sheetViews>
-    <sheetView zoomScale="242" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>369</v>
-      </c>
-      <c r="B3">
-        <v>2013</v>
-      </c>
-      <c r="D3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>384</v>
-      </c>
-      <c r="B4">
-        <v>2021</v>
-      </c>
-      <c r="C4" t="s">
-        <v>385</v>
-      </c>
-      <c r="D4" t="s">
-        <v>386</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>
